--- a/metaData.xlsx
+++ b/metaData.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antoi\Desktop\TD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antoine.dufrenne\Documents\GitHub\Data_Looger\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF2F6CF-A2AC-45B3-B7DC-10D1B27E207B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14310" yWindow="4455" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14310" yWindow="4455" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="UART message" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="112">
   <si>
     <t>ch1</t>
   </si>
@@ -310,60 +309,12 @@
     <t>0x1C</t>
   </si>
   <si>
-    <t>hex00</t>
-  </si>
-  <si>
-    <t>hex01</t>
-  </si>
-  <si>
-    <t>hex02</t>
-  </si>
-  <si>
-    <t>hex03</t>
-  </si>
-  <si>
-    <t>hex04</t>
-  </si>
-  <si>
-    <t>hex05</t>
-  </si>
-  <si>
-    <t>hex06</t>
-  </si>
-  <si>
-    <t>hex07</t>
-  </si>
-  <si>
-    <t>hex08</t>
-  </si>
-  <si>
-    <t>hex09</t>
-  </si>
-  <si>
-    <t>hex10</t>
-  </si>
-  <si>
-    <t>hex11</t>
-  </si>
-  <si>
-    <t>hex12</t>
-  </si>
-  <si>
-    <t>hex13</t>
-  </si>
-  <si>
     <t>ADC1</t>
   </si>
   <si>
     <t>ADC3</t>
   </si>
   <si>
-    <t>hex14</t>
-  </si>
-  <si>
-    <t>hex15</t>
-  </si>
-  <si>
     <t>reponce presc</t>
   </si>
   <si>
@@ -410,18 +361,12 @@
   </si>
   <si>
     <t>adc3Vers</t>
-  </si>
-  <si>
-    <t>hex16</t>
-  </si>
-  <si>
-    <t>hex17</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -636,22 +581,22 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -945,14 +890,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AA61"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Z32" sqref="Z32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" style="8" bestFit="1" customWidth="1"/>
@@ -967,31 +912,31 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
-      <c r="R2" s="25" t="s">
+      <c r="R2" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="25"/>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="25"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="22"/>
     </row>
     <row r="3" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
@@ -1017,11 +962,11 @@
       <c r="C4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
       <c r="G4" s="24"/>
       <c r="H4" s="13" t="s">
         <v>79</v>
@@ -1322,13 +1267,13 @@
       <c r="F16" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G16" s="22" t="s">
+      <c r="G16" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
       <c r="J16" s="24"/>
-      <c r="K16" s="22" t="s">
+      <c r="K16" s="23" t="s">
         <v>19</v>
       </c>
       <c r="L16" s="24"/>
@@ -1342,7 +1287,7 @@
       <c r="T16" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="U16" s="22" t="s">
+      <c r="U16" s="23" t="s">
         <v>7</v>
       </c>
       <c r="V16" s="24"/>
@@ -1433,13 +1378,13 @@
       <c r="F20" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G20" s="22" t="s">
+      <c r="G20" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
       <c r="J20" s="24"/>
-      <c r="K20" s="22" t="s">
+      <c r="K20" s="23" t="s">
         <v>19</v>
       </c>
       <c r="L20" s="24"/>
@@ -1452,7 +1397,7 @@
       <c r="T20" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="U20" s="22" t="s">
+      <c r="U20" s="23" t="s">
         <v>7</v>
       </c>
       <c r="V20" s="24"/>
@@ -1538,13 +1483,13 @@
       <c r="F24" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G24" s="22" t="s">
+      <c r="G24" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
       <c r="J24" s="24"/>
-      <c r="K24" s="22" t="s">
+      <c r="K24" s="23" t="s">
         <v>19</v>
       </c>
       <c r="L24" s="24"/>
@@ -1557,7 +1502,7 @@
       <c r="T24" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="U24" s="22" t="s">
+      <c r="U24" s="23" t="s">
         <v>7</v>
       </c>
       <c r="V24" s="24"/>
@@ -1642,13 +1587,13 @@
       <c r="F28" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G28" s="22" t="s">
+      <c r="G28" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
       <c r="J28" s="24"/>
-      <c r="K28" s="22" t="s">
+      <c r="K28" s="23" t="s">
         <v>19</v>
       </c>
       <c r="L28" s="24"/>
@@ -1661,15 +1606,15 @@
       <c r="T28" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="U28" s="22" t="s">
+      <c r="U28" s="23" t="s">
         <v>28</v>
       </c>
       <c r="V28" s="24"/>
-      <c r="W28" s="22" t="s">
+      <c r="W28" s="23" t="s">
         <v>27</v>
       </c>
       <c r="X28" s="24"/>
-      <c r="Y28" s="22" t="s">
+      <c r="Y28" s="23" t="s">
         <v>26</v>
       </c>
       <c r="Z28" s="24"/>
@@ -1833,11 +1778,11 @@
       <c r="U36" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="V36" s="22" t="s">
+      <c r="V36" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="W36" s="23"/>
-      <c r="X36" s="23"/>
+      <c r="W36" s="25"/>
+      <c r="X36" s="25"/>
       <c r="Y36" s="24"/>
       <c r="Z36" s="15"/>
       <c r="AA36" s="15"/>
@@ -1919,7 +1864,7 @@
       <c r="S40" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="T40" s="22" t="s">
+      <c r="T40" s="23" t="s">
         <v>77</v>
       </c>
       <c r="U40" s="24"/>
@@ -1964,7 +1909,7 @@
         <v>65</v>
       </c>
       <c r="R43" s="9" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44" spans="2:27" x14ac:dyDescent="0.25">
@@ -1989,11 +1934,11 @@
       <c r="S44" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="T44" s="22" t="s">
+      <c r="T44" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="U44" s="23"/>
-      <c r="V44" s="23"/>
+      <c r="U44" s="25"/>
+      <c r="V44" s="25"/>
       <c r="W44" s="24"/>
       <c r="X44" s="13" t="s">
         <v>79</v>
@@ -2044,7 +1989,7 @@
         <v>66</v>
       </c>
       <c r="R47" s="9" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="2:27" x14ac:dyDescent="0.25">
@@ -2333,12 +2278,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="R2:AA2"/>
-    <mergeCell ref="Y28:Z28"/>
-    <mergeCell ref="W28:X28"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="K20:L20"/>
     <mergeCell ref="T44:W44"/>
     <mergeCell ref="V36:Y36"/>
     <mergeCell ref="T40:U40"/>
@@ -2347,12 +2292,12 @@
     <mergeCell ref="G28:J28"/>
     <mergeCell ref="K28:L28"/>
     <mergeCell ref="U28:V28"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="R2:AA2"/>
+    <mergeCell ref="Y28:Z28"/>
+    <mergeCell ref="W28:X28"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="U16:V16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2361,14 +2306,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{537F77ED-D622-43A2-B254-8F92D4AD3130}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:V11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="12.7109375" style="5"/>
   </cols>
@@ -2400,109 +2345,109 @@
     </row>
     <row r="3" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="26" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
       <c r="E3" s="26"/>
       <c r="F3" s="4" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="H3" s="26"/>
       <c r="I3" s="4" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="K3" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="L3" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="M3" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="N3" s="21" t="s">
-        <v>123</v>
+        <v>102</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="M3" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="N3" s="20" t="s">
+        <v>107</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="P3" s="21" t="s">
-        <v>127</v>
+        <v>103</v>
+      </c>
+      <c r="P3" s="20" t="s">
+        <v>111</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
     </row>
     <row r="4" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="K4" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="L4" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="M4" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="N4" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="O4" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="P4" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q4" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="R4" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="S4" s="20" t="s">
-        <v>129</v>
+      <c r="B4" s="6">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+      <c r="D4" s="21">
+        <v>2</v>
+      </c>
+      <c r="E4" s="21">
+        <v>3</v>
+      </c>
+      <c r="F4" s="21">
+        <v>4</v>
+      </c>
+      <c r="G4" s="21">
+        <v>5</v>
+      </c>
+      <c r="H4" s="21">
+        <v>6</v>
+      </c>
+      <c r="I4" s="21">
+        <v>7</v>
+      </c>
+      <c r="J4" s="21">
+        <v>8</v>
+      </c>
+      <c r="K4" s="21">
+        <v>9</v>
+      </c>
+      <c r="L4" s="21">
+        <v>10</v>
+      </c>
+      <c r="M4" s="21">
+        <v>11</v>
+      </c>
+      <c r="N4" s="21">
+        <v>12</v>
+      </c>
+      <c r="O4" s="21">
+        <v>13</v>
+      </c>
+      <c r="P4" s="21">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="21">
+        <v>15</v>
+      </c>
+      <c r="R4" s="21">
+        <v>16</v>
+      </c>
+      <c r="S4" s="21">
+        <v>17</v>
       </c>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
@@ -2565,7 +2510,7 @@
     </row>
     <row r="8" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="28" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>45</v>
@@ -2593,7 +2538,7 @@
     </row>
     <row r="10" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="28" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>45</v>

--- a/metaData.xlsx
+++ b/metaData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14310" yWindow="4455" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="14310" yWindow="4455" windowWidth="21600" windowHeight="11385" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="UART message" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="129">
   <si>
     <t>ch1</t>
   </si>
@@ -361,6 +361,57 @@
   </si>
   <si>
     <t>adc3Vers</t>
+  </si>
+  <si>
+    <t>Param structure</t>
+  </si>
+  <si>
+    <t>XX</t>
+  </si>
+  <si>
+    <t>dataCH1_1</t>
+  </si>
+  <si>
+    <t>dataCH1_2</t>
+  </si>
+  <si>
+    <t>dataCH1_3</t>
+  </si>
+  <si>
+    <t>dataCH1_4</t>
+  </si>
+  <si>
+    <t>dataCH1_5</t>
+  </si>
+  <si>
+    <t>dataCH1_6</t>
+  </si>
+  <si>
+    <t>dataCH1_7</t>
+  </si>
+  <si>
+    <t>dataCH1_8</t>
+  </si>
+  <si>
+    <t>dataCH1_9</t>
+  </si>
+  <si>
+    <t>dataCH1_10</t>
+  </si>
+  <si>
+    <t>dataCH1_11</t>
+  </si>
+  <si>
+    <t>dataCH1_12</t>
+  </si>
+  <si>
+    <t>dataCH1_13</t>
+  </si>
+  <si>
+    <t>numAdcCH</t>
+  </si>
+  <si>
+    <t>1-&gt;2</t>
   </si>
 </sst>
 </file>
@@ -522,7 +573,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -587,16 +638,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -893,7 +950,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AA61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Z32" sqref="Z32"/>
     </sheetView>
   </sheetViews>
@@ -912,31 +969,31 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
-      <c r="R2" s="22" t="s">
+      <c r="R2" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="22"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
     </row>
     <row r="3" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
@@ -962,12 +1019,12 @@
       <c r="C4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="24" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="25"/>
       <c r="F4" s="25"/>
-      <c r="G4" s="24"/>
+      <c r="G4" s="26"/>
       <c r="H4" s="13" t="s">
         <v>79</v>
       </c>
@@ -1267,16 +1324,16 @@
       <c r="F16" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="G16" s="24" t="s">
         <v>18</v>
       </c>
       <c r="H16" s="25"/>
       <c r="I16" s="25"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="23" t="s">
+      <c r="J16" s="26"/>
+      <c r="K16" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="L16" s="24"/>
+      <c r="L16" s="26"/>
       <c r="M16" s="18"/>
       <c r="R16" s="13" t="s">
         <v>5</v>
@@ -1287,10 +1344,10 @@
       <c r="T16" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="U16" s="23" t="s">
+      <c r="U16" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="V16" s="24"/>
+      <c r="V16" s="26"/>
       <c r="W16" s="16"/>
       <c r="X16" s="16"/>
       <c r="Y16" s="16"/>
@@ -1378,16 +1435,16 @@
       <c r="F20" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G20" s="23" t="s">
+      <c r="G20" s="24" t="s">
         <v>18</v>
       </c>
       <c r="H20" s="25"/>
       <c r="I20" s="25"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="23" t="s">
+      <c r="J20" s="26"/>
+      <c r="K20" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="L20" s="24"/>
+      <c r="L20" s="26"/>
       <c r="R20" s="13" t="s">
         <v>5</v>
       </c>
@@ -1397,10 +1454,10 @@
       <c r="T20" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="U20" s="23" t="s">
+      <c r="U20" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="V20" s="24"/>
+      <c r="V20" s="26"/>
       <c r="W20" s="16"/>
       <c r="X20" s="16"/>
       <c r="Y20" s="16"/>
@@ -1483,16 +1540,16 @@
       <c r="F24" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G24" s="23" t="s">
+      <c r="G24" s="24" t="s">
         <v>18</v>
       </c>
       <c r="H24" s="25"/>
       <c r="I24" s="25"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="23" t="s">
+      <c r="J24" s="26"/>
+      <c r="K24" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="L24" s="24"/>
+      <c r="L24" s="26"/>
       <c r="R24" s="13" t="s">
         <v>5</v>
       </c>
@@ -1502,10 +1559,10 @@
       <c r="T24" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="U24" s="23" t="s">
+      <c r="U24" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="V24" s="24"/>
+      <c r="V24" s="26"/>
       <c r="W24" s="16"/>
       <c r="X24" s="16"/>
       <c r="Y24" s="16"/>
@@ -1587,16 +1644,16 @@
       <c r="F28" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G28" s="23" t="s">
+      <c r="G28" s="24" t="s">
         <v>18</v>
       </c>
       <c r="H28" s="25"/>
       <c r="I28" s="25"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="23" t="s">
+      <c r="J28" s="26"/>
+      <c r="K28" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="L28" s="24"/>
+      <c r="L28" s="26"/>
       <c r="R28" s="13" t="s">
         <v>5</v>
       </c>
@@ -1606,18 +1663,18 @@
       <c r="T28" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="U28" s="23" t="s">
+      <c r="U28" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="V28" s="24"/>
-      <c r="W28" s="23" t="s">
+      <c r="V28" s="26"/>
+      <c r="W28" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="X28" s="24"/>
-      <c r="Y28" s="23" t="s">
+      <c r="X28" s="26"/>
+      <c r="Y28" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="Z28" s="24"/>
+      <c r="Z28" s="26"/>
       <c r="AA28" s="16"/>
     </row>
     <row r="29" spans="2:27" x14ac:dyDescent="0.25">
@@ -1778,12 +1835,12 @@
       <c r="U36" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="V36" s="23" t="s">
+      <c r="V36" s="24" t="s">
         <v>78</v>
       </c>
       <c r="W36" s="25"/>
       <c r="X36" s="25"/>
-      <c r="Y36" s="24"/>
+      <c r="Y36" s="26"/>
       <c r="Z36" s="15"/>
       <c r="AA36" s="15"/>
     </row>
@@ -1864,10 +1921,10 @@
       <c r="S40" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="T40" s="23" t="s">
+      <c r="T40" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="U40" s="24"/>
+      <c r="U40" s="26"/>
       <c r="V40" s="15"/>
       <c r="W40" s="15"/>
       <c r="X40" s="15"/>
@@ -1934,12 +1991,12 @@
       <c r="S44" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="T44" s="23" t="s">
+      <c r="T44" s="24" t="s">
         <v>80</v>
       </c>
       <c r="U44" s="25"/>
       <c r="V44" s="25"/>
-      <c r="W44" s="24"/>
+      <c r="W44" s="26"/>
       <c r="X44" s="13" t="s">
         <v>79</v>
       </c>
@@ -2278,12 +2335,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="R2:AA2"/>
+    <mergeCell ref="Y28:Z28"/>
+    <mergeCell ref="W28:X28"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="U16:V16"/>
     <mergeCell ref="T44:W44"/>
     <mergeCell ref="V36:Y36"/>
     <mergeCell ref="T40:U40"/>
@@ -2292,12 +2349,12 @@
     <mergeCell ref="G28:J28"/>
     <mergeCell ref="K28:L28"/>
     <mergeCell ref="U28:V28"/>
-    <mergeCell ref="R2:AA2"/>
-    <mergeCell ref="Y28:Z28"/>
-    <mergeCell ref="W28:X28"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="K20:L20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2307,10 +2364,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:V11"/>
+  <dimension ref="B2:V17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2319,44 +2376,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
+      <c r="B2" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
     </row>
     <row r="3" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
       <c r="F3" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="H3" s="26"/>
+      <c r="H3" s="28"/>
       <c r="I3" s="4" t="s">
         <v>99</v>
       </c>
@@ -2474,11 +2531,11 @@
       <c r="V5" s="2"/>
     </row>
     <row r="6" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
       <c r="H6" s="1"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -2496,10 +2553,10 @@
       <c r="V6" s="2"/>
     </row>
     <row r="7" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="29"/>
+      <c r="C7" s="31"/>
       <c r="D7" s="3"/>
       <c r="H7" s="2"/>
       <c r="Q7" s="2"/>
@@ -2509,7 +2566,7 @@
       <c r="U7" s="2"/>
     </row>
     <row r="8" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="30" t="s">
         <v>94</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -2520,7 +2577,7 @@
       </c>
     </row>
     <row r="9" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="28"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="3" t="s">
         <v>0</v>
       </c>
@@ -2537,7 +2594,7 @@
       <c r="P9" s="2"/>
     </row>
     <row r="10" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="30" t="s">
         <v>95</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -2548,7 +2605,7 @@
       </c>
     </row>
     <row r="11" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="28"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="3" t="s">
         <v>0</v>
       </c>
@@ -2556,8 +2613,199 @@
         <v>50</v>
       </c>
     </row>
+    <row r="14" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="29"/>
+    </row>
+    <row r="15" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="I15" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="J15" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="K15" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="L15" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="M15" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="N15" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="O15" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="P15" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q15" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="R15" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="S15" s="22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="I16" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="J16" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="K16" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="L16" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="M16" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="N16" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="O16" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="P16" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q16" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="R16" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="S16" s="23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="23">
+        <v>0</v>
+      </c>
+      <c r="C17" s="23">
+        <v>1</v>
+      </c>
+      <c r="D17" s="23">
+        <v>2</v>
+      </c>
+      <c r="E17" s="23">
+        <v>3</v>
+      </c>
+      <c r="F17" s="23">
+        <v>4</v>
+      </c>
+      <c r="G17" s="23">
+        <v>5</v>
+      </c>
+      <c r="H17" s="23">
+        <v>6</v>
+      </c>
+      <c r="I17" s="23">
+        <v>7</v>
+      </c>
+      <c r="J17" s="23">
+        <v>8</v>
+      </c>
+      <c r="K17" s="23">
+        <v>9</v>
+      </c>
+      <c r="L17" s="23">
+        <v>10</v>
+      </c>
+      <c r="M17" s="23">
+        <v>11</v>
+      </c>
+      <c r="N17" s="23">
+        <v>12</v>
+      </c>
+      <c r="O17" s="23">
+        <v>13</v>
+      </c>
+      <c r="P17" s="23">
+        <v>14</v>
+      </c>
+      <c r="Q17" s="23">
+        <v>15</v>
+      </c>
+      <c r="R17" s="23">
+        <v>16</v>
+      </c>
+      <c r="S17" s="23" t="s">
+        <v>113</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="B14:S14"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="B2:S2"/>
     <mergeCell ref="B8:B9"/>

--- a/metaData.xlsx
+++ b/metaData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14310" yWindow="4455" windowWidth="21600" windowHeight="11385" activeTab="1"/>
+    <workbookView xWindow="14310" yWindow="4455" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="UART message" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="130">
   <si>
     <t>ch1</t>
   </si>
@@ -412,6 +412,9 @@
   </si>
   <si>
     <t>1-&gt;2</t>
+  </si>
+  <si>
+    <t>nbdiv</t>
   </si>
 </sst>
 </file>
@@ -656,10 +659,10 @@
     <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -950,8 +953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AA61"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z32" sqref="Z32"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1753,9 +1756,15 @@
       <c r="B32" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
+      <c r="C32" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>129</v>
+      </c>
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
@@ -1773,9 +1782,15 @@
       <c r="B33" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
+      <c r="C33" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>3</v>
+      </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
@@ -2366,7 +2381,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:V17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -2376,44 +2391,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
     </row>
     <row r="3" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
       <c r="F3" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="H3" s="28"/>
+      <c r="H3" s="29"/>
       <c r="I3" s="4" t="s">
         <v>99</v>
       </c>
@@ -2531,11 +2546,11 @@
       <c r="V5" s="2"/>
     </row>
     <row r="6" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
       <c r="H6" s="1"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -2614,26 +2629,26 @@
       </c>
     </row>
     <row r="14" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="29"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="28"/>
     </row>
     <row r="15" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="22" t="s">

--- a/metaData.xlsx
+++ b/metaData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="129">
   <si>
     <t>ch1</t>
   </si>
@@ -412,9 +412,6 @@
   </si>
   <si>
     <t>1-&gt;2</t>
-  </si>
-  <si>
-    <t>nbdiv</t>
   </si>
 </sst>
 </file>
@@ -647,16 +644,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -953,8 +950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AA61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -972,31 +969,31 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
-      <c r="R2" s="27" t="s">
+      <c r="R2" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="24"/>
     </row>
     <row r="3" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
@@ -1022,11 +1019,11 @@
       <c r="C4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
       <c r="G4" s="26"/>
       <c r="H4" s="13" t="s">
         <v>79</v>
@@ -1327,13 +1324,13 @@
       <c r="F16" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G16" s="24" t="s">
+      <c r="G16" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
       <c r="J16" s="26"/>
-      <c r="K16" s="24" t="s">
+      <c r="K16" s="25" t="s">
         <v>19</v>
       </c>
       <c r="L16" s="26"/>
@@ -1347,7 +1344,7 @@
       <c r="T16" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="U16" s="24" t="s">
+      <c r="U16" s="25" t="s">
         <v>7</v>
       </c>
       <c r="V16" s="26"/>
@@ -1438,13 +1435,13 @@
       <c r="F20" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G20" s="24" t="s">
+      <c r="G20" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
       <c r="J20" s="26"/>
-      <c r="K20" s="24" t="s">
+      <c r="K20" s="25" t="s">
         <v>19</v>
       </c>
       <c r="L20" s="26"/>
@@ -1457,7 +1454,7 @@
       <c r="T20" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="U20" s="24" t="s">
+      <c r="U20" s="25" t="s">
         <v>7</v>
       </c>
       <c r="V20" s="26"/>
@@ -1543,13 +1540,13 @@
       <c r="F24" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G24" s="24" t="s">
+      <c r="G24" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
       <c r="J24" s="26"/>
-      <c r="K24" s="24" t="s">
+      <c r="K24" s="25" t="s">
         <v>19</v>
       </c>
       <c r="L24" s="26"/>
@@ -1562,7 +1559,7 @@
       <c r="T24" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="U24" s="24" t="s">
+      <c r="U24" s="25" t="s">
         <v>7</v>
       </c>
       <c r="V24" s="26"/>
@@ -1647,13 +1644,13 @@
       <c r="F28" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G28" s="24" t="s">
+      <c r="G28" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
       <c r="J28" s="26"/>
-      <c r="K28" s="24" t="s">
+      <c r="K28" s="25" t="s">
         <v>19</v>
       </c>
       <c r="L28" s="26"/>
@@ -1666,15 +1663,15 @@
       <c r="T28" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="U28" s="24" t="s">
+      <c r="U28" s="25" t="s">
         <v>28</v>
       </c>
       <c r="V28" s="26"/>
-      <c r="W28" s="24" t="s">
+      <c r="W28" s="25" t="s">
         <v>27</v>
       </c>
       <c r="X28" s="26"/>
-      <c r="Y28" s="24" t="s">
+      <c r="Y28" s="25" t="s">
         <v>26</v>
       </c>
       <c r="Z28" s="26"/>
@@ -1756,15 +1753,9 @@
       <c r="B32" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>129</v>
-      </c>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
@@ -1782,15 +1773,9 @@
       <c r="B33" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" s="17" t="s">
-        <v>3</v>
-      </c>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
@@ -1850,11 +1835,11 @@
       <c r="U36" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="V36" s="24" t="s">
+      <c r="V36" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="W36" s="25"/>
-      <c r="X36" s="25"/>
+      <c r="W36" s="27"/>
+      <c r="X36" s="27"/>
       <c r="Y36" s="26"/>
       <c r="Z36" s="15"/>
       <c r="AA36" s="15"/>
@@ -1936,7 +1921,7 @@
       <c r="S40" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="T40" s="24" t="s">
+      <c r="T40" s="25" t="s">
         <v>77</v>
       </c>
       <c r="U40" s="26"/>
@@ -2006,11 +1991,11 @@
       <c r="S44" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="T44" s="24" t="s">
+      <c r="T44" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="U44" s="25"/>
-      <c r="V44" s="25"/>
+      <c r="U44" s="27"/>
+      <c r="V44" s="27"/>
       <c r="W44" s="26"/>
       <c r="X44" s="13" t="s">
         <v>79</v>
@@ -2350,12 +2335,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="R2:AA2"/>
-    <mergeCell ref="Y28:Z28"/>
-    <mergeCell ref="W28:X28"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="K20:L20"/>
     <mergeCell ref="T44:W44"/>
     <mergeCell ref="V36:Y36"/>
     <mergeCell ref="T40:U40"/>
@@ -2364,12 +2349,12 @@
     <mergeCell ref="G28:J28"/>
     <mergeCell ref="K28:L28"/>
     <mergeCell ref="U28:V28"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="R2:AA2"/>
+    <mergeCell ref="Y28:Z28"/>
+    <mergeCell ref="W28:X28"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="U16:V16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/metaData.xlsx
+++ b/metaData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antoine.dufrenne\Documents\GitHub\Data_Looger\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antoi\Documents\GitHub\Data_Looger\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C51036-F282-411F-B7A4-057BEF04D6C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14310" yWindow="4455" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="29520" yWindow="1290" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UART message" sheetId="1" r:id="rId1"/>
@@ -327,12 +328,6 @@
     <t>tm2Div</t>
   </si>
   <si>
-    <t>tm1Prescale</t>
-  </si>
-  <si>
-    <t>tm2Prescale</t>
-  </si>
-  <si>
     <t>numAdcCH[0]</t>
   </si>
   <si>
@@ -412,12 +407,18 @@
   </si>
   <si>
     <t>1-&gt;2</t>
+  </si>
+  <si>
+    <t>tm1Period</t>
+  </si>
+  <si>
+    <t>tm2Period</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -644,16 +645,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -947,14 +948,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AA61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" style="8" bestFit="1" customWidth="1"/>
@@ -969,31 +970,31 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
-      <c r="R2" s="24" t="s">
+      <c r="R2" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
     </row>
     <row r="3" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
@@ -1019,11 +1020,11 @@
       <c r="C4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
       <c r="G4" s="26"/>
       <c r="H4" s="13" t="s">
         <v>79</v>
@@ -1324,13 +1325,13 @@
       <c r="F16" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G16" s="25" t="s">
+      <c r="G16" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
       <c r="J16" s="26"/>
-      <c r="K16" s="25" t="s">
+      <c r="K16" s="24" t="s">
         <v>19</v>
       </c>
       <c r="L16" s="26"/>
@@ -1344,7 +1345,7 @@
       <c r="T16" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="U16" s="25" t="s">
+      <c r="U16" s="24" t="s">
         <v>7</v>
       </c>
       <c r="V16" s="26"/>
@@ -1435,13 +1436,13 @@
       <c r="F20" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G20" s="25" t="s">
+      <c r="G20" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
       <c r="J20" s="26"/>
-      <c r="K20" s="25" t="s">
+      <c r="K20" s="24" t="s">
         <v>19</v>
       </c>
       <c r="L20" s="26"/>
@@ -1454,7 +1455,7 @@
       <c r="T20" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="U20" s="25" t="s">
+      <c r="U20" s="24" t="s">
         <v>7</v>
       </c>
       <c r="V20" s="26"/>
@@ -1540,13 +1541,13 @@
       <c r="F24" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G24" s="25" t="s">
+      <c r="G24" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
       <c r="J24" s="26"/>
-      <c r="K24" s="25" t="s">
+      <c r="K24" s="24" t="s">
         <v>19</v>
       </c>
       <c r="L24" s="26"/>
@@ -1559,7 +1560,7 @@
       <c r="T24" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="U24" s="25" t="s">
+      <c r="U24" s="24" t="s">
         <v>7</v>
       </c>
       <c r="V24" s="26"/>
@@ -1644,13 +1645,13 @@
       <c r="F28" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G28" s="25" t="s">
+      <c r="G28" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
       <c r="J28" s="26"/>
-      <c r="K28" s="25" t="s">
+      <c r="K28" s="24" t="s">
         <v>19</v>
       </c>
       <c r="L28" s="26"/>
@@ -1663,15 +1664,15 @@
       <c r="T28" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="U28" s="25" t="s">
+      <c r="U28" s="24" t="s">
         <v>28</v>
       </c>
       <c r="V28" s="26"/>
-      <c r="W28" s="25" t="s">
+      <c r="W28" s="24" t="s">
         <v>27</v>
       </c>
       <c r="X28" s="26"/>
-      <c r="Y28" s="25" t="s">
+      <c r="Y28" s="24" t="s">
         <v>26</v>
       </c>
       <c r="Z28" s="26"/>
@@ -1835,11 +1836,11 @@
       <c r="U36" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="V36" s="25" t="s">
+      <c r="V36" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="W36" s="27"/>
-      <c r="X36" s="27"/>
+      <c r="W36" s="25"/>
+      <c r="X36" s="25"/>
       <c r="Y36" s="26"/>
       <c r="Z36" s="15"/>
       <c r="AA36" s="15"/>
@@ -1921,7 +1922,7 @@
       <c r="S40" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="T40" s="25" t="s">
+      <c r="T40" s="24" t="s">
         <v>77</v>
       </c>
       <c r="U40" s="26"/>
@@ -1991,11 +1992,11 @@
       <c r="S44" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="T44" s="25" t="s">
+      <c r="T44" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="U44" s="27"/>
-      <c r="V44" s="27"/>
+      <c r="U44" s="25"/>
+      <c r="V44" s="25"/>
       <c r="W44" s="26"/>
       <c r="X44" s="13" t="s">
         <v>79</v>
@@ -2335,12 +2336,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="R2:AA2"/>
+    <mergeCell ref="Y28:Z28"/>
+    <mergeCell ref="W28:X28"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="U16:V16"/>
     <mergeCell ref="T44:W44"/>
     <mergeCell ref="V36:Y36"/>
     <mergeCell ref="T40:U40"/>
@@ -2349,12 +2350,12 @@
     <mergeCell ref="G28:J28"/>
     <mergeCell ref="K28:L28"/>
     <mergeCell ref="U28:V28"/>
-    <mergeCell ref="R2:AA2"/>
-    <mergeCell ref="Y28:Z28"/>
-    <mergeCell ref="W28:X28"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="K20:L20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2363,21 +2364,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:V17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="12.7109375" style="5"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="28" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
@@ -2402,7 +2403,7 @@
     </row>
     <row r="3" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="29" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
@@ -2411,41 +2412,41 @@
         <v>98</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="H3" s="29"/>
       <c r="I3" s="4" t="s">
         <v>99</v>
       </c>
       <c r="J3" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="L3" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="K3" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="L3" s="20" t="s">
+      <c r="M3" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="M3" s="20" t="s">
+      <c r="N3" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="P3" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="R3" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="N3" s="20" t="s">
+      <c r="S3" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="P3" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
@@ -2637,63 +2638,63 @@
     </row>
     <row r="15" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="22" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C15" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="D15" s="22" t="s">
-        <v>106</v>
-      </c>
       <c r="E15" s="22" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F15" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="H15" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="I15" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="H15" s="22" t="s">
+      <c r="J15" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="I15" s="22" t="s">
+      <c r="K15" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="J15" s="22" t="s">
+      <c r="L15" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="K15" s="22" t="s">
+      <c r="M15" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="L15" s="22" t="s">
+      <c r="N15" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="M15" s="22" t="s">
+      <c r="O15" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="N15" s="22" t="s">
+      <c r="P15" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="O15" s="22" t="s">
+      <c r="Q15" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="P15" s="22" t="s">
+      <c r="R15" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="Q15" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="R15" s="22" t="s">
-        <v>126</v>
-      </c>
       <c r="S15" s="22" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="23" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C16" s="23" t="s">
         <v>67</v>
@@ -2800,7 +2801,7 @@
         <v>16</v>
       </c>
       <c r="S17" s="23" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/metaData.xlsx
+++ b/metaData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antoi\Documents\GitHub\Data_Looger\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antoine\Documents\GitHub\Data_Looger\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C51036-F282-411F-B7A4-057BEF04D6C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45354F66-629B-4D45-85D5-0B11D4C26A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29520" yWindow="1290" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UART message" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="138">
   <si>
     <t>ch1</t>
   </si>
@@ -413,13 +413,40 @@
   </si>
   <si>
     <t>tm2Period</t>
+  </si>
+  <si>
+    <t>AV</t>
+  </si>
+  <si>
+    <t>0 Volt</t>
+  </si>
+  <si>
+    <t>1 ampere</t>
+  </si>
+  <si>
+    <t>TmDiv</t>
+  </si>
+  <si>
+    <t>0 *1</t>
+  </si>
+  <si>
+    <t>1 *2</t>
+  </si>
+  <si>
+    <t>2 *4</t>
+  </si>
+  <si>
+    <t>adcVers</t>
+  </si>
+  <si>
+    <t>0 -&gt; max</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -453,6 +480,12 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -574,7 +607,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -645,18 +678,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -667,6 +706,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -955,48 +1003,48 @@
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.88671875" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="12" width="10.7109375" style="8" customWidth="1"/>
-    <col min="13" max="13" width="7.140625" style="8" customWidth="1"/>
-    <col min="14" max="15" width="10.7109375" style="8" customWidth="1"/>
-    <col min="16" max="16" width="9.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="27" width="10.7109375" style="8" customWidth="1"/>
-    <col min="28" max="16384" width="15.7109375" style="8"/>
+    <col min="3" max="12" width="10.6640625" style="8" customWidth="1"/>
+    <col min="13" max="13" width="7.109375" style="8" customWidth="1"/>
+    <col min="14" max="15" width="10.6640625" style="8" customWidth="1"/>
+    <col min="16" max="16" width="9.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="27" width="10.6640625" style="8" customWidth="1"/>
+    <col min="28" max="16384" width="15.6640625" style="8"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B2" s="27" t="s">
+    <row r="2" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B2" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
-      <c r="R2" s="27" t="s">
+      <c r="R2" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
-    </row>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+    </row>
+    <row r="3" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B3" s="9" t="s">
         <v>4</v>
       </c>
@@ -1013,19 +1061,19 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B4" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="26"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="28"/>
       <c r="H4" s="13" t="s">
         <v>79</v>
       </c>
@@ -1051,7 +1099,7 @@
       <c r="Z4" s="16"/>
       <c r="AA4" s="16"/>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B5" s="17" t="s">
         <v>2</v>
       </c>
@@ -1090,12 +1138,12 @@
       <c r="V5" s="18"/>
       <c r="W5" s="19"/>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.3">
       <c r="N6" s="17" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B7" s="9" t="s">
         <v>64</v>
       </c>
@@ -1114,7 +1162,7 @@
       <c r="Z7" s="19"/>
       <c r="AA7" s="19"/>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B8" s="13" t="s">
         <v>5</v>
       </c>
@@ -1145,7 +1193,7 @@
       <c r="Z8" s="16"/>
       <c r="AA8" s="16"/>
     </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B9" s="17" t="s">
         <v>8</v>
       </c>
@@ -1171,11 +1219,11 @@
       <c r="V9" s="18"/>
       <c r="W9" s="19"/>
     </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:27" x14ac:dyDescent="0.3">
       <c r="Q10" s="19"/>
       <c r="R10" s="19"/>
     </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B11" s="9" t="s">
         <v>15</v>
       </c>
@@ -1191,7 +1239,7 @@
       <c r="Z11" s="19"/>
       <c r="AA11" s="19"/>
     </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B12" s="13" t="s">
         <v>5</v>
       </c>
@@ -1231,7 +1279,7 @@
       <c r="Z12" s="19"/>
       <c r="AA12" s="19"/>
     </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B13" s="17" t="s">
         <v>9</v>
       </c>
@@ -1270,7 +1318,7 @@
       <c r="Z13" s="19"/>
       <c r="AA13" s="19"/>
     </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:27" x14ac:dyDescent="0.3">
       <c r="N14" s="17" t="s">
         <v>86</v>
       </c>
@@ -1289,7 +1337,7 @@
       <c r="Z14" s="19"/>
       <c r="AA14" s="19"/>
     </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B15" s="9" t="s">
         <v>17</v>
       </c>
@@ -1309,7 +1357,7 @@
       <c r="Z15" s="19"/>
       <c r="AA15" s="19"/>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B16" s="13" t="s">
         <v>5</v>
       </c>
@@ -1325,16 +1373,16 @@
       <c r="F16" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G16" s="24" t="s">
+      <c r="G16" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="24" t="s">
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="L16" s="26"/>
+      <c r="L16" s="28"/>
       <c r="M16" s="18"/>
       <c r="R16" s="13" t="s">
         <v>5</v>
@@ -1345,17 +1393,17 @@
       <c r="T16" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="U16" s="24" t="s">
+      <c r="U16" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="V16" s="26"/>
+      <c r="V16" s="28"/>
       <c r="W16" s="16"/>
       <c r="X16" s="16"/>
       <c r="Y16" s="16"/>
       <c r="Z16" s="16"/>
       <c r="AA16" s="16"/>
     </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B17" s="17" t="s">
         <v>16</v>
       </c>
@@ -1407,7 +1455,7 @@
       </c>
       <c r="W17" s="19"/>
     </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B19" s="9" t="s">
         <v>20</v>
       </c>
@@ -1420,7 +1468,7 @@
       <c r="Z19" s="19"/>
       <c r="AA19" s="19"/>
     </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B20" s="13" t="s">
         <v>5</v>
       </c>
@@ -1436,16 +1484,16 @@
       <c r="F20" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G20" s="24" t="s">
+      <c r="G20" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="24" t="s">
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="L20" s="26"/>
+      <c r="L20" s="28"/>
       <c r="R20" s="13" t="s">
         <v>5</v>
       </c>
@@ -1455,17 +1503,17 @@
       <c r="T20" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="U20" s="24" t="s">
+      <c r="U20" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="V20" s="26"/>
+      <c r="V20" s="28"/>
       <c r="W20" s="16"/>
       <c r="X20" s="16"/>
       <c r="Y20" s="16"/>
       <c r="Z20" s="16"/>
       <c r="AA20" s="16"/>
     </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B21" s="17" t="s">
         <v>29</v>
       </c>
@@ -1516,7 +1564,7 @@
       </c>
       <c r="W21" s="19"/>
     </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B23" s="9" t="s">
         <v>21</v>
       </c>
@@ -1525,7 +1573,7 @@
       </c>
       <c r="W23" s="19"/>
     </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B24" s="13" t="s">
         <v>5</v>
       </c>
@@ -1541,16 +1589,16 @@
       <c r="F24" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G24" s="24" t="s">
+      <c r="G24" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="24" t="s">
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="L24" s="26"/>
+      <c r="L24" s="28"/>
       <c r="R24" s="13" t="s">
         <v>5</v>
       </c>
@@ -1560,17 +1608,17 @@
       <c r="T24" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="U24" s="24" t="s">
+      <c r="U24" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="V24" s="26"/>
+      <c r="V24" s="28"/>
       <c r="W24" s="16"/>
       <c r="X24" s="16"/>
       <c r="Y24" s="16"/>
       <c r="Z24" s="16"/>
       <c r="AA24" s="16"/>
     </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B25" s="17" t="s">
         <v>30</v>
       </c>
@@ -1621,7 +1669,7 @@
       </c>
       <c r="W25" s="19"/>
     </row>
-    <row r="27" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B27" s="9" t="s">
         <v>24</v>
       </c>
@@ -1629,7 +1677,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B28" s="13" t="s">
         <v>5</v>
       </c>
@@ -1645,16 +1693,16 @@
       <c r="F28" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G28" s="24" t="s">
+      <c r="G28" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="24" t="s">
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="L28" s="26"/>
+      <c r="L28" s="28"/>
       <c r="R28" s="13" t="s">
         <v>5</v>
       </c>
@@ -1664,21 +1712,21 @@
       <c r="T28" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="U28" s="24" t="s">
+      <c r="U28" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="V28" s="26"/>
-      <c r="W28" s="24" t="s">
+      <c r="V28" s="28"/>
+      <c r="W28" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="X28" s="26"/>
-      <c r="Y28" s="24" t="s">
+      <c r="X28" s="28"/>
+      <c r="Y28" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="Z28" s="26"/>
+      <c r="Z28" s="28"/>
       <c r="AA28" s="16"/>
     </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B29" s="17" t="s">
         <v>31</v>
       </c>
@@ -1740,7 +1788,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B31" s="9" t="s">
         <v>40</v>
       </c>
@@ -1750,7 +1798,7 @@
       <c r="U31" s="18"/>
       <c r="V31" s="18"/>
     </row>
-    <row r="32" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B32" s="13" t="s">
         <v>5</v>
       </c>
@@ -1770,7 +1818,7 @@
       <c r="U32" s="18"/>
       <c r="V32" s="18"/>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B33" s="17" t="s">
         <v>39</v>
       </c>
@@ -1789,14 +1837,14 @@
       <c r="U33" s="18"/>
       <c r="V33" s="18"/>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.3">
       <c r="R34" s="19"/>
       <c r="S34" s="19"/>
       <c r="T34" s="19"/>
       <c r="U34" s="19"/>
       <c r="V34" s="19"/>
     </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B35" s="9" t="s">
         <v>42</v>
       </c>
@@ -1804,7 +1852,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B36" s="13" t="s">
         <v>5</v>
       </c>
@@ -1836,16 +1884,16 @@
       <c r="U36" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="V36" s="24" t="s">
+      <c r="V36" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="W36" s="25"/>
-      <c r="X36" s="25"/>
-      <c r="Y36" s="26"/>
+      <c r="W36" s="29"/>
+      <c r="X36" s="29"/>
+      <c r="Y36" s="28"/>
       <c r="Z36" s="15"/>
       <c r="AA36" s="15"/>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B37" s="17" t="s">
         <v>41</v>
       </c>
@@ -1889,10 +1937,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.3">
       <c r="R38" s="19"/>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B39" s="9" t="s">
         <v>56</v>
       </c>
@@ -1900,7 +1948,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B40" s="13" t="s">
         <v>5</v>
       </c>
@@ -1922,10 +1970,10 @@
       <c r="S40" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="T40" s="24" t="s">
+      <c r="T40" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="U40" s="26"/>
+      <c r="U40" s="28"/>
       <c r="V40" s="15"/>
       <c r="W40" s="15"/>
       <c r="X40" s="15"/>
@@ -1933,7 +1981,7 @@
       <c r="Z40" s="15"/>
       <c r="AA40" s="15"/>
     </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B41" s="17" t="s">
         <v>38</v>
       </c>
@@ -1962,7 +2010,7 @@
       </c>
       <c r="V41" s="18"/>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B43" s="9" t="s">
         <v>65</v>
       </c>
@@ -1970,7 +2018,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B44" s="13" t="s">
         <v>5</v>
       </c>
@@ -1992,12 +2040,12 @@
       <c r="S44" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="T44" s="24" t="s">
+      <c r="T44" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="U44" s="25"/>
-      <c r="V44" s="25"/>
-      <c r="W44" s="26"/>
+      <c r="U44" s="29"/>
+      <c r="V44" s="29"/>
+      <c r="W44" s="28"/>
       <c r="X44" s="13" t="s">
         <v>79</v>
       </c>
@@ -2005,7 +2053,7 @@
       <c r="Z44" s="15"/>
       <c r="AA44" s="15"/>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B45" s="17" t="s">
         <v>59</v>
       </c>
@@ -2042,7 +2090,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B47" s="9" t="s">
         <v>66</v>
       </c>
@@ -2050,7 +2098,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B48" s="13" t="s">
         <v>5</v>
       </c>
@@ -2089,7 +2137,7 @@
       <c r="Z48" s="15"/>
       <c r="AA48" s="15"/>
     </row>
-    <row r="49" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B49" s="17" t="s">
         <v>60</v>
       </c>
@@ -2122,12 +2170,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B51" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="52" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B52" s="13" t="s">
         <v>5</v>
       </c>
@@ -2160,7 +2208,7 @@
       </c>
       <c r="L52" s="15"/>
     </row>
-    <row r="53" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B53" s="17" t="s">
         <v>61</v>
       </c>
@@ -2193,12 +2241,12 @@
       </c>
       <c r="L53" s="12"/>
     </row>
-    <row r="55" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B55" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="56" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B56" s="13" t="s">
         <v>5</v>
       </c>
@@ -2231,7 +2279,7 @@
       </c>
       <c r="L56" s="15"/>
     </row>
-    <row r="57" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B57" s="17" t="s">
         <v>62</v>
       </c>
@@ -2264,12 +2312,12 @@
       </c>
       <c r="L57" s="12"/>
     </row>
-    <row r="59" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B59" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="60" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B60" s="13" t="s">
         <v>5</v>
       </c>
@@ -2302,7 +2350,7 @@
       </c>
       <c r="L60" s="15"/>
     </row>
-    <row r="61" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B61" s="17" t="s">
         <v>55</v>
       </c>
@@ -2336,12 +2384,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="R2:AA2"/>
-    <mergeCell ref="Y28:Z28"/>
-    <mergeCell ref="W28:X28"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="K20:L20"/>
     <mergeCell ref="T44:W44"/>
     <mergeCell ref="V36:Y36"/>
     <mergeCell ref="T40:U40"/>
@@ -2350,12 +2398,12 @@
     <mergeCell ref="G28:J28"/>
     <mergeCell ref="K28:L28"/>
     <mergeCell ref="U28:V28"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="R2:AA2"/>
+    <mergeCell ref="Y28:Z28"/>
+    <mergeCell ref="W28:X28"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="U16:V16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2368,53 +2416,53 @@
   <dimension ref="B2:V17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="12.7109375" style="5"/>
+    <col min="1" max="16384" width="12.6640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="28" t="s">
+    <row r="2" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
     </row>
-    <row r="3" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="29" t="s">
+    <row r="3" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
       <c r="F3" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="H3" s="29"/>
+      <c r="H3" s="31"/>
       <c r="I3" s="4" t="s">
         <v>99</v>
       </c>
@@ -2452,7 +2500,7 @@
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
     </row>
-    <row r="4" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6">
         <v>0</v>
       </c>
@@ -2511,7 +2559,7 @@
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
     </row>
-    <row r="5" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -2531,12 +2579,12 @@
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
     </row>
-    <row r="6" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="28" t="s">
+    <row r="6" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
       <c r="H6" s="1"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -2553,21 +2601,29 @@
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
     </row>
-    <row r="7" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="31" t="s">
+    <row r="7" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="31"/>
+      <c r="C7" s="33"/>
       <c r="D7" s="3"/>
-      <c r="H7" s="2"/>
+      <c r="F7" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="J7" s="36" t="s">
+        <v>136</v>
+      </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
     </row>
-    <row r="8" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="30" t="s">
+    <row r="8" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="32" t="s">
         <v>94</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -2576,14 +2632,29 @@
       <c r="D8" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="9" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="30"/>
+      <c r="F8" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="J8" s="24" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="32"/>
       <c r="C9" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>48</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="H9" s="34" t="s">
+        <v>134</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -2594,8 +2665,8 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="30" t="s">
+    <row r="10" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="32" t="s">
         <v>95</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -2604,9 +2675,12 @@
       <c r="D10" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="11" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="30"/>
+      <c r="H10" s="34" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="32"/>
       <c r="C11" s="3" t="s">
         <v>0</v>
       </c>
@@ -2614,29 +2688,29 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="28" t="s">
+    <row r="14" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-    </row>
-    <row r="15" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
+    </row>
+    <row r="15" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="22" t="s">
         <v>125</v>
       </c>
@@ -2692,7 +2766,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="23" t="s">
         <v>126</v>
       </c>
@@ -2748,7 +2822,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:19" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="23">
         <v>0</v>
       </c>

--- a/metaData.xlsx
+++ b/metaData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antoine\Documents\GitHub\Data_Looger\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antoi\Documents\GitHub\Data_Looger\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45354F66-629B-4D45-85D5-0B11D4C26A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EFE5A92-5226-4B5B-B835-62C3376BB79A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UART message" sheetId="1" r:id="rId1"/>
@@ -26,14 +26,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="140">
   <si>
     <t>ch1</t>
   </si>
   <si>
-    <t>dataSave structure</t>
-  </si>
-  <si>
     <t>0x01</t>
   </si>
   <si>
@@ -385,24 +382,6 @@
     <t>dataCH1_7</t>
   </si>
   <si>
-    <t>dataCH1_8</t>
-  </si>
-  <si>
-    <t>dataCH1_9</t>
-  </si>
-  <si>
-    <t>dataCH1_10</t>
-  </si>
-  <si>
-    <t>dataCH1_11</t>
-  </si>
-  <si>
-    <t>dataCH1_12</t>
-  </si>
-  <si>
-    <t>dataCH1_13</t>
-  </si>
-  <si>
     <t>numAdcCH</t>
   </si>
   <si>
@@ -440,6 +419,33 @@
   </si>
   <si>
     <t>0 -&gt; max</t>
+  </si>
+  <si>
+    <t>period</t>
+  </si>
+  <si>
+    <t>dataCH1_0</t>
+  </si>
+  <si>
+    <t>dataSave structure ADC1 (1ch)</t>
+  </si>
+  <si>
+    <t>dataSave structure ADC2 (2ch)</t>
+  </si>
+  <si>
+    <t>dataCH0_0</t>
+  </si>
+  <si>
+    <t>dataCH0_1</t>
+  </si>
+  <si>
+    <t>dataCH0_2</t>
+  </si>
+  <si>
+    <t>dataCH0_3</t>
+  </si>
+  <si>
+    <t>dataCH0_4</t>
   </si>
 </sst>
 </file>
@@ -607,7 +613,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -684,28 +690,10 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -715,6 +703,39 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -999,54 +1020,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AA61"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="12" width="10.6640625" style="8" customWidth="1"/>
-    <col min="13" max="13" width="7.109375" style="8" customWidth="1"/>
-    <col min="14" max="15" width="10.6640625" style="8" customWidth="1"/>
-    <col min="16" max="16" width="9.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="27" width="10.6640625" style="8" customWidth="1"/>
-    <col min="28" max="16384" width="15.6640625" style="8"/>
+    <col min="3" max="12" width="10.7109375" style="8" customWidth="1"/>
+    <col min="13" max="13" width="7.140625" style="8" customWidth="1"/>
+    <col min="14" max="15" width="10.7109375" style="8" customWidth="1"/>
+    <col min="16" max="16" width="9.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="27" width="10.7109375" style="8" customWidth="1"/>
+    <col min="28" max="16384" width="15.7109375" style="8"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B2" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
+    <row r="2" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B2" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
-      <c r="R2" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-    </row>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="R2" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+    </row>
+    <row r="3" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="11"/>
@@ -1058,37 +1079,37 @@
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
       <c r="R3" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="2:27" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B4" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="D4" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="28"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="33"/>
       <c r="H4" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
       <c r="N4" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R4" s="13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S4" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T4" s="15"/>
       <c r="U4" s="15"/>
@@ -1099,59 +1120,59 @@
       <c r="Z4" s="16"/>
       <c r="AA4" s="16"/>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B5" s="17" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
       <c r="N5" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R5" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S5" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T5" s="18"/>
       <c r="U5" s="18"/>
       <c r="V5" s="18"/>
       <c r="W5" s="19"/>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
       <c r="N6" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="N7" s="17" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B7" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="N7" s="17" t="s">
-        <v>84</v>
-      </c>
       <c r="R7" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T7" s="18"/>
       <c r="U7" s="18"/>
@@ -1162,15 +1183,15 @@
       <c r="Z7" s="19"/>
       <c r="AA7" s="19"/>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B8" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>6</v>
-      </c>
       <c r="D8" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
@@ -1181,7 +1202,7 @@
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
       <c r="R8" s="13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S8" s="15"/>
       <c r="T8" s="15"/>
@@ -1193,15 +1214,15 @@
       <c r="Z8" s="16"/>
       <c r="AA8" s="16"/>
     </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B9" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
@@ -1211,7 +1232,7 @@
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
       <c r="R9" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S9" s="18"/>
       <c r="T9" s="18"/>
@@ -1219,13 +1240,13 @@
       <c r="V9" s="18"/>
       <c r="W9" s="19"/>
     </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:27" x14ac:dyDescent="0.25">
       <c r="Q10" s="19"/>
       <c r="R10" s="19"/>
     </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q11" s="19"/>
       <c r="R11" s="18"/>
@@ -1239,21 +1260,21 @@
       <c r="Z11" s="19"/>
       <c r="AA11" s="19"/>
     </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>6</v>
-      </c>
       <c r="D12" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E12" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="13" t="s">
         <v>13</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>14</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
@@ -1262,10 +1283,10 @@
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
       <c r="N12" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="O12" s="13" t="s">
         <v>13</v>
-      </c>
-      <c r="O12" s="13" t="s">
-        <v>14</v>
       </c>
       <c r="Q12" s="19"/>
       <c r="R12" s="18"/>
@@ -1279,21 +1300,21 @@
       <c r="Z12" s="19"/>
       <c r="AA12" s="19"/>
     </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B13" s="17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E13" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="17" t="s">
         <v>67</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>68</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
@@ -1301,10 +1322,10 @@
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
       <c r="N13" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O13" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="19"/>
       <c r="R13" s="18"/>
@@ -1318,12 +1339,12 @@
       <c r="Z13" s="19"/>
       <c r="AA13" s="19"/>
     </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:27" x14ac:dyDescent="0.25">
       <c r="N14" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O14" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q14" s="19"/>
       <c r="R14" s="19"/>
@@ -1337,15 +1358,15 @@
       <c r="Z14" s="19"/>
       <c r="AA14" s="19"/>
     </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O15" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R15" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S15" s="18"/>
       <c r="T15" s="18"/>
@@ -1357,110 +1378,110 @@
       <c r="Z15" s="19"/>
       <c r="AA15" s="19"/>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B16" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>6</v>
-      </c>
       <c r="D16" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="G16" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="L16" s="28"/>
+      <c r="L16" s="33"/>
       <c r="M16" s="18"/>
       <c r="R16" s="13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S16" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T16" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="U16" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="V16" s="28"/>
+        <v>89</v>
+      </c>
+      <c r="U16" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="V16" s="33"/>
       <c r="W16" s="16"/>
       <c r="X16" s="16"/>
       <c r="Y16" s="16"/>
       <c r="Z16" s="16"/>
       <c r="AA16" s="16"/>
     </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B17" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J17" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K17" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M17" s="12"/>
       <c r="R17" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S17" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="T17" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U17" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V17" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W17" s="19"/>
     </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R19" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W19" s="19"/>
       <c r="X19" s="19"/>
@@ -1468,329 +1489,329 @@
       <c r="Z19" s="19"/>
       <c r="AA19" s="19"/>
     </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B20" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="D20" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="G20" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" s="33"/>
+      <c r="R20" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="S20" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="T20" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="U20" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="G20" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="L20" s="28"/>
-      <c r="R20" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="S20" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="T20" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="U20" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="V20" s="28"/>
+      <c r="V20" s="33"/>
       <c r="W20" s="16"/>
       <c r="X20" s="16"/>
       <c r="Y20" s="16"/>
       <c r="Z20" s="16"/>
       <c r="AA20" s="16"/>
     </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B21" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="J21" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="K21" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="L21" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="R21" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="S21" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="T21" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="U21" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="V21" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="W21" s="19"/>
+    </row>
+    <row r="23" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B23" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="R23" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="W23" s="19"/>
+    </row>
+    <row r="24" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B24" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="K21" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="R21" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="S21" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="T21" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="U21" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="V21" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="W21" s="19"/>
-    </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B23" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="R23" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="W23" s="19"/>
-    </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B24" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="13" t="s">
+      <c r="F24" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="G24" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" s="33"/>
+      <c r="R24" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="S24" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="T24" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="U24" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="G24" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="28"/>
-      <c r="R24" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="S24" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="T24" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="U24" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="V24" s="28"/>
+      <c r="V24" s="33"/>
       <c r="W24" s="16"/>
       <c r="X24" s="16"/>
       <c r="Y24" s="16"/>
       <c r="Z24" s="16"/>
       <c r="AA24" s="16"/>
     </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B25" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="I25" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="J25" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="K25" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="L25" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="R25" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="S25" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="T25" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="U25" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="V25" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="W25" s="19"/>
+    </row>
+    <row r="27" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B27" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="R27" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B28" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="G28" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="L28" s="33"/>
+      <c r="R28" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="S28" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="T28" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="U28" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="V28" s="33"/>
+      <c r="W28" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="X28" s="33"/>
+      <c r="Y28" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z28" s="33"/>
+      <c r="AA28" s="16"/>
+    </row>
+    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B29" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="G25" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="H25" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="I25" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="J25" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="K25" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="L25" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="R25" s="17" t="s">
+      <c r="C29" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H29" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="I29" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="J29" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="K29" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="L29" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="R29" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="S25" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="T25" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="U25" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="V25" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="W25" s="19"/>
-    </row>
-    <row r="27" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B27" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="R27" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B28" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="G28" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="L28" s="28"/>
-      <c r="R28" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="S28" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="T28" s="13" t="s">
+      <c r="S29" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="T29" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="U28" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="V28" s="28"/>
-      <c r="W28" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="X28" s="28"/>
-      <c r="Y28" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z28" s="28"/>
-      <c r="AA28" s="16"/>
-    </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B29" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="G29" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="H29" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="I29" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="J29" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="K29" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="L29" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="R29" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="S29" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="T29" s="17" t="s">
-        <v>91</v>
-      </c>
       <c r="U29" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V29" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W29" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X29" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y29" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z29" s="17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B31" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R31" s="18"/>
       <c r="S31" s="18"/>
@@ -1798,9 +1819,9 @@
       <c r="U31" s="18"/>
       <c r="V31" s="18"/>
     </row>
-    <row r="32" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B32" s="13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
@@ -1818,9 +1839,9 @@
       <c r="U32" s="18"/>
       <c r="V32" s="18"/>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B33" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
@@ -1837,33 +1858,33 @@
       <c r="U33" s="18"/>
       <c r="V33" s="18"/>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.25">
       <c r="R34" s="19"/>
       <c r="S34" s="19"/>
       <c r="T34" s="19"/>
       <c r="U34" s="19"/>
       <c r="V34" s="19"/>
     </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B35" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R35" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" spans="2:27" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B36" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="13" t="s">
-        <v>6</v>
-      </c>
       <c r="D36" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F36" s="15"/>
       <c r="G36" s="15"/>
@@ -1873,38 +1894,38 @@
       <c r="K36" s="15"/>
       <c r="L36" s="15"/>
       <c r="R36" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="S36" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="S36" s="13" t="s">
-        <v>6</v>
-      </c>
       <c r="T36" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U36" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="V36" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="W36" s="29"/>
-      <c r="X36" s="29"/>
-      <c r="Y36" s="28"/>
+      <c r="V36" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="W36" s="32"/>
+      <c r="X36" s="32"/>
+      <c r="Y36" s="33"/>
       <c r="Z36" s="15"/>
       <c r="AA36" s="15"/>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B37" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
@@ -1913,47 +1934,47 @@
       <c r="J37" s="12"/>
       <c r="K37" s="12"/>
       <c r="R37" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S37" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T37" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U37" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V37" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W37" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X37" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y37" s="17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:27" x14ac:dyDescent="0.25">
       <c r="R38" s="19"/>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B39" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R39" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B40" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="13" t="s">
         <v>5</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>6</v>
       </c>
       <c r="D40" s="15"/>
       <c r="E40" s="15"/>
@@ -1965,15 +1986,15 @@
       <c r="K40" s="15"/>
       <c r="L40" s="15"/>
       <c r="R40" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="S40" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="S40" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="T40" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="U40" s="28"/>
+      <c r="T40" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="U40" s="33"/>
       <c r="V40" s="15"/>
       <c r="W40" s="15"/>
       <c r="X40" s="15"/>
@@ -1981,12 +2002,12 @@
       <c r="Z40" s="15"/>
       <c r="AA40" s="15"/>
     </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B41" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
@@ -1997,33 +2018,33 @@
       <c r="J41" s="12"/>
       <c r="K41" s="12"/>
       <c r="R41" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S41" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="T41" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U41" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V41" s="18"/>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B43" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R43" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B44" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="13" t="s">
         <v>5</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>6</v>
       </c>
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
@@ -2035,30 +2056,30 @@
       <c r="K44" s="15"/>
       <c r="L44" s="15"/>
       <c r="R44" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="S44" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="S44" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="T44" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="U44" s="29"/>
-      <c r="V44" s="29"/>
-      <c r="W44" s="28"/>
+      <c r="T44" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="U44" s="32"/>
+      <c r="V44" s="32"/>
+      <c r="W44" s="33"/>
       <c r="X44" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y44" s="15"/>
       <c r="Z44" s="15"/>
       <c r="AA44" s="15"/>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B45" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
@@ -2069,44 +2090,44 @@
       <c r="J45" s="12"/>
       <c r="K45" s="12"/>
       <c r="R45" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S45" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="T45" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U45" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V45" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W45" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X45" s="17" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B47" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R47" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B48" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C48" s="13" t="s">
-        <v>6</v>
-      </c>
       <c r="D48" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E48" s="15"/>
       <c r="F48" s="15"/>
@@ -2117,19 +2138,19 @@
       <c r="K48" s="15"/>
       <c r="L48" s="15"/>
       <c r="R48" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="S48" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="S48" s="13" t="s">
-        <v>6</v>
-      </c>
       <c r="T48" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U48" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="V48" s="13" t="s">
         <v>13</v>
-      </c>
-      <c r="V48" s="13" t="s">
-        <v>14</v>
       </c>
       <c r="W48" s="15"/>
       <c r="X48" s="15"/>
@@ -2137,15 +2158,15 @@
       <c r="Z48" s="15"/>
       <c r="AA48" s="15"/>
     </row>
-    <row r="49" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B49" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E49" s="12"/>
       <c r="F49" s="12"/>
@@ -2155,62 +2176,62 @@
       <c r="J49" s="12"/>
       <c r="K49" s="12"/>
       <c r="R49" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S49" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T49" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U49" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="V49" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="V49" s="17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="51" spans="2:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B51" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="2:22" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B52" s="13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H52" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I52" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J52" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K52" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L52" s="15"/>
     </row>
-    <row r="53" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B53" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C53" s="17">
         <v>0</v>
@@ -2241,47 +2262,47 @@
       </c>
       <c r="L53" s="12"/>
     </row>
-    <row r="55" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B55" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="56" spans="2:22" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B56" s="13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F56" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H56" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I56" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J56" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K56" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L56" s="15"/>
     </row>
-    <row r="57" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B57" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C57" s="17">
         <v>0</v>
@@ -2312,47 +2333,47 @@
       </c>
       <c r="L57" s="12"/>
     </row>
-    <row r="59" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B59" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="60" spans="2:22" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B60" s="13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F60" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G60" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H60" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I60" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J60" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K60" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L60" s="15"/>
     </row>
-    <row r="61" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B61" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C61" s="17">
         <v>0</v>
@@ -2384,12 +2405,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="R2:AA2"/>
+    <mergeCell ref="Y28:Z28"/>
+    <mergeCell ref="W28:X28"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="U16:V16"/>
     <mergeCell ref="T44:W44"/>
     <mergeCell ref="V36:Y36"/>
     <mergeCell ref="T40:U40"/>
@@ -2398,12 +2419,12 @@
     <mergeCell ref="G28:J28"/>
     <mergeCell ref="K28:L28"/>
     <mergeCell ref="U28:V28"/>
-    <mergeCell ref="R2:AA2"/>
-    <mergeCell ref="Y28:Z28"/>
-    <mergeCell ref="W28:X28"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="K20:L20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2413,94 +2434,94 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:V17"/>
+  <dimension ref="B2:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="12.6640625" style="5"/>
+    <col min="1" max="16384" width="12.7109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
+    <row r="2" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
     </row>
-    <row r="3" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
+    <row r="3" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
       <c r="F3" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="H3" s="36"/>
+      <c r="I3" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="G3" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="H3" s="31"/>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="M3" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="N3" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="O3" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="P3" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="Q3" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="M3" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="N3" s="20" t="s">
+      <c r="R3" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="O3" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="P3" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="R3" s="4" t="s">
+      <c r="S3" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
     </row>
-    <row r="4" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6">
         <v>0</v>
       </c>
@@ -2559,7 +2580,7 @@
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
     </row>
-    <row r="5" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -2579,12 +2600,12 @@
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
     </row>
-    <row r="6" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
+    <row r="6" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
       <c r="H6" s="1"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -2601,20 +2622,20 @@
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
     </row>
-    <row r="7" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="33"/>
+    <row r="7" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="38"/>
       <c r="D7" s="3"/>
-      <c r="F7" s="35" t="s">
+      <c r="F7" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="J7" s="30" t="s">
         <v>129</v>
-      </c>
-      <c r="H7" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="J7" s="36" t="s">
-        <v>136</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
@@ -2622,39 +2643,39 @@
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
     </row>
-    <row r="8" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="32" t="s">
-        <v>94</v>
+    <row r="8" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="37" t="s">
+        <v>93</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="J8" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="H8" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="J8" s="24" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="32"/>
+    </row>
+    <row r="9" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="37"/>
       <c r="C9" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="H9" s="34" t="s">
-        <v>134</v>
+        <v>47</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>127</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -2665,164 +2686,158 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="32" t="s">
-        <v>95</v>
+    <row r="10" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="37" t="s">
+        <v>94</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="34" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="11" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="32"/>
+        <v>48</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="37"/>
       <c r="C11" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="30"/>
-    </row>
-    <row r="15" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="35"/>
+    </row>
+    <row r="15" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="22" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D15" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="E15" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="K15" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="L15" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="M15" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="N15" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="H15" s="22" t="s">
+      <c r="O15" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="I15" s="22" t="s">
+      <c r="P15" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="J15" s="22" t="s">
+      <c r="Q15" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="K15" s="22" t="s">
+      <c r="R15" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="L15" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="M15" s="22" t="s">
+      <c r="S15" s="22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="N15" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="O15" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="P15" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q15" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="R15" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="S15" s="22" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="16" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="23" t="s">
-        <v>126</v>
-      </c>
       <c r="C16" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="23" t="s">
-        <v>68</v>
-      </c>
       <c r="E16" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H16" s="23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J16" s="23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K16" s="23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16" s="23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M16" s="23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N16" s="23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O16" s="23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P16" s="23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q16" s="23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R16" s="23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S16" s="23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="2:19" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="23">
         <v>0</v>
       </c>
@@ -2875,11 +2890,202 @@
         <v>16</v>
       </c>
       <c r="S17" s="23" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="35"/>
+      <c r="S19" s="35"/>
+    </row>
+    <row r="20" spans="2:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G20" s="40"/>
+      <c r="H20" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="I20" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="J20" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="K20" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="L20" s="26" t="s">
         <v>111</v>
       </c>
+      <c r="M20" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="N20" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="O20" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="P20" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q20" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="R20" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="S20" s="26" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="H21" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="I21" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="J21" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="K21" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="L21" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="M21" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="N21" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="O21" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="P21" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="R21" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="S21" s="27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="27">
+        <v>0</v>
+      </c>
+      <c r="C22" s="27">
+        <v>1</v>
+      </c>
+      <c r="D22" s="27">
+        <v>2</v>
+      </c>
+      <c r="E22" s="27">
+        <v>3</v>
+      </c>
+      <c r="F22" s="27">
+        <v>4</v>
+      </c>
+      <c r="G22" s="27">
+        <v>5</v>
+      </c>
+      <c r="H22" s="27">
+        <v>6</v>
+      </c>
+      <c r="I22" s="27">
+        <v>7</v>
+      </c>
+      <c r="J22" s="27">
+        <v>8</v>
+      </c>
+      <c r="K22" s="27">
+        <v>9</v>
+      </c>
+      <c r="L22" s="27">
+        <v>10</v>
+      </c>
+      <c r="M22" s="27">
+        <v>11</v>
+      </c>
+      <c r="N22" s="27">
+        <v>12</v>
+      </c>
+      <c r="O22" s="27">
+        <v>13</v>
+      </c>
+      <c r="P22" s="27">
+        <v>14</v>
+      </c>
+      <c r="Q22" s="27">
+        <v>15</v>
+      </c>
+      <c r="R22" s="27">
+        <v>16</v>
+      </c>
+      <c r="S22" s="27" t="s">
+        <v>110</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="11">
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="B19:S19"/>
+    <mergeCell ref="F20:G20"/>
     <mergeCell ref="B14:S14"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="B2:S2"/>

--- a/metaData.xlsx
+++ b/metaData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antoi\Documents\GitHub\Data_Looger\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EFE5A92-5226-4B5B-B835-62C3376BB79A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967FC041-714D-4C86-904C-9A29C7ACDE78}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UART message" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="138">
   <si>
     <t>ch1</t>
   </si>
@@ -37,15 +37,9 @@
     <t>xx</t>
   </si>
   <si>
-    <t>prescale tm</t>
-  </si>
-  <si>
     <t>fonc</t>
   </si>
   <si>
-    <t>tm</t>
-  </si>
-  <si>
     <t>value</t>
   </si>
   <si>
@@ -70,15 +64,9 @@
     <t>amp</t>
   </si>
   <si>
-    <t>chose param ch 01-&gt;04</t>
-  </si>
-  <si>
     <t>0x04</t>
   </si>
   <si>
-    <t>moyenne</t>
-  </si>
-  <si>
     <t>pos</t>
   </si>
   <si>
@@ -97,9 +85,6 @@
     <t>0x10</t>
   </si>
   <si>
-    <t>dataTout</t>
-  </si>
-  <si>
     <t>0x11</t>
   </si>
   <si>
@@ -136,18 +121,12 @@
     <t xml:space="preserve"> ok message</t>
   </si>
   <si>
-    <t>ch/tm</t>
-  </si>
-  <si>
     <t>0x0A</t>
   </si>
   <si>
     <t>0x08</t>
   </si>
   <si>
-    <t>delet Data</t>
-  </si>
-  <si>
     <t>0x09</t>
   </si>
   <si>
@@ -178,27 +157,15 @@
     <t>ADC3_1</t>
   </si>
   <si>
-    <t>rengement fichier</t>
-  </si>
-  <si>
     <t>uart communication rx</t>
   </si>
   <si>
     <t>00-&gt;01</t>
   </si>
   <si>
-    <t>Version</t>
-  </si>
-  <si>
     <t>0x0F</t>
   </si>
   <si>
-    <t>num Version</t>
-  </si>
-  <si>
-    <t>version</t>
-  </si>
-  <si>
     <t>0x1A</t>
   </si>
   <si>
@@ -214,12 +181,6 @@
     <t>0x0E</t>
   </si>
   <si>
-    <t xml:space="preserve">not use </t>
-  </si>
-  <si>
-    <t>chose nb CH use</t>
-  </si>
-  <si>
     <t>ret prescale  param</t>
   </si>
   <si>
@@ -235,24 +196,6 @@
     <t>01 -&gt; 2</t>
   </si>
   <si>
-    <t>reponce mid</t>
-  </si>
-  <si>
-    <t>reponce min</t>
-  </si>
-  <si>
-    <t>reponce max</t>
-  </si>
-  <si>
-    <t>reponce all</t>
-  </si>
-  <si>
-    <t>reponce nbData</t>
-  </si>
-  <si>
-    <t>reponce nbVers</t>
-  </si>
-  <si>
     <t>01 -&gt; 02</t>
   </si>
   <si>
@@ -271,15 +214,6 @@
     <t>0-&gt;02</t>
   </si>
   <si>
-    <t>0-&gt;S</t>
-  </si>
-  <si>
-    <t>1-&gt;mS</t>
-  </si>
-  <si>
-    <t>2-&gt;us</t>
-  </si>
-  <si>
     <t>0 -&gt; amp</t>
   </si>
   <si>
@@ -307,24 +241,6 @@
     <t>0x1C</t>
   </si>
   <si>
-    <t>ADC1</t>
-  </si>
-  <si>
-    <t>ADC3</t>
-  </si>
-  <si>
-    <t>reponce presc</t>
-  </si>
-  <si>
-    <t>reponce paramCH</t>
-  </si>
-  <si>
-    <t>tm1Div</t>
-  </si>
-  <si>
-    <t>tm2Div</t>
-  </si>
-  <si>
     <t>numAdcCH[0]</t>
   </si>
   <si>
@@ -349,12 +265,6 @@
     <t>Amp3</t>
   </si>
   <si>
-    <t>adc1Vers</t>
-  </si>
-  <si>
-    <t>adc3Vers</t>
-  </si>
-  <si>
     <t>Param structure</t>
   </si>
   <si>
@@ -388,12 +298,6 @@
     <t>1-&gt;2</t>
   </si>
   <si>
-    <t>tm1Period</t>
-  </si>
-  <si>
-    <t>tm2Period</t>
-  </si>
-  <si>
     <t>AV</t>
   </si>
   <si>
@@ -415,9 +319,6 @@
     <t>2 *4</t>
   </si>
   <si>
-    <t>adcVers</t>
-  </si>
-  <si>
     <t>0 -&gt; max</t>
   </si>
   <si>
@@ -445,7 +346,100 @@
     <t>dataCH0_3</t>
   </si>
   <si>
-    <t>dataCH0_4</t>
+    <t>prescale adc</t>
+  </si>
+  <si>
+    <t>adc</t>
+  </si>
+  <si>
+    <t>ch/adc</t>
+  </si>
+  <si>
+    <t>delete Data</t>
+  </si>
+  <si>
+    <t>answer mid</t>
+  </si>
+  <si>
+    <t>answer min</t>
+  </si>
+  <si>
+    <t>answer max</t>
+  </si>
+  <si>
+    <t>answer all</t>
+  </si>
+  <si>
+    <t>answer nbData</t>
+  </si>
+  <si>
+    <t>answer presc</t>
+  </si>
+  <si>
+    <t>answer paramCH</t>
+  </si>
+  <si>
+    <t>choose nb CH use</t>
+  </si>
+  <si>
+    <t>choose param ch 01-&gt;04</t>
+  </si>
+  <si>
+    <t>middle</t>
+  </si>
+  <si>
+    <t>dataAll</t>
+  </si>
+  <si>
+    <t>num Series</t>
+  </si>
+  <si>
+    <t>not used</t>
+  </si>
+  <si>
+    <t>Series</t>
+  </si>
+  <si>
+    <t>answer nbSeries</t>
+  </si>
+  <si>
+    <t>0-&gt; *1</t>
+  </si>
+  <si>
+    <t>1-&gt; *2</t>
+  </si>
+  <si>
+    <t>2-&gt;*4</t>
+  </si>
+  <si>
+    <t>rangement fichier</t>
+  </si>
+  <si>
+    <t>adcSeries</t>
+  </si>
+  <si>
+    <t>adcAPeriod</t>
+  </si>
+  <si>
+    <t>adcADiv</t>
+  </si>
+  <si>
+    <t>adcBPeriod</t>
+  </si>
+  <si>
+    <t>adcBDiv</t>
+  </si>
+  <si>
+    <t>adcAnsSeries</t>
+  </si>
+  <si>
+    <t>adcBnbSeries</t>
+  </si>
+  <si>
+    <t>ADCA</t>
+  </si>
+  <si>
+    <t>ADCB</t>
   </si>
 </sst>
 </file>
@@ -613,7 +607,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -705,16 +699,31 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -727,15 +736,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1020,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AA61"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,35 +1039,35 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B2" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
+      <c r="B2" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
-      <c r="R2" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34"/>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="34"/>
+      <c r="R2" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
     </row>
     <row r="3" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="11"/>
@@ -1079,37 +1079,37 @@
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
       <c r="R3" s="9" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="33"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="35"/>
       <c r="H4" s="13" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
       <c r="N4" s="13" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="R4" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S4" s="13" t="s">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="T4" s="15"/>
       <c r="U4" s="15"/>
@@ -1125,7 +1125,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>2</v>
@@ -1140,19 +1140,19 @@
         <v>2</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
       <c r="N5" s="17" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="R5" s="17" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="S5" s="17" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="T5" s="18"/>
       <c r="U5" s="18"/>
@@ -1161,18 +1161,18 @@
     </row>
     <row r="6" spans="2:27" x14ac:dyDescent="0.25">
       <c r="N6" s="17" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
       <c r="N7" s="17" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="T7" s="18"/>
       <c r="U7" s="18"/>
@@ -1185,13 +1185,13 @@
     </row>
     <row r="8" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B8" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
@@ -1202,9 +1202,11 @@
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
       <c r="R8" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="S8" s="15"/>
+        <v>3</v>
+      </c>
+      <c r="S8" s="13" t="s">
+        <v>108</v>
+      </c>
       <c r="T8" s="15"/>
       <c r="U8" s="15"/>
       <c r="V8" s="15"/>
@@ -1216,13 +1218,13 @@
     </row>
     <row r="9" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B9" s="17" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
@@ -1232,9 +1234,11 @@
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
       <c r="R9" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="S9" s="18"/>
+        <v>19</v>
+      </c>
+      <c r="S9" s="17" t="s">
+        <v>55</v>
+      </c>
       <c r="T9" s="18"/>
       <c r="U9" s="18"/>
       <c r="V9" s="18"/>
@@ -1246,11 +1250,10 @@
     </row>
     <row r="11" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="Q11" s="19"/>
       <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
       <c r="T11" s="18"/>
       <c r="U11" s="18"/>
       <c r="V11" s="18"/>
@@ -1262,19 +1265,19 @@
     </row>
     <row r="12" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
@@ -1283,10 +1286,10 @@
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
       <c r="N12" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O12" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="19"/>
       <c r="R12" s="18"/>
@@ -1302,19 +1305,19 @@
     </row>
     <row r="13" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B13" s="17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
@@ -1322,10 +1325,10 @@
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
       <c r="N13" s="17" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="O13" s="17" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="Q13" s="19"/>
       <c r="R13" s="18"/>
@@ -1341,10 +1344,10 @@
     </row>
     <row r="14" spans="2:27" x14ac:dyDescent="0.25">
       <c r="N14" s="17" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="O14" s="17" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="Q14" s="19"/>
       <c r="R14" s="19"/>
@@ -1360,13 +1363,13 @@
     </row>
     <row r="15" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="O15" s="17" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="R15" s="9" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="S15" s="18"/>
       <c r="T15" s="18"/>
@@ -1380,44 +1383,44 @@
     </row>
     <row r="16" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B16" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="G16" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="L16" s="33"/>
+        <v>59</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="L16" s="35"/>
       <c r="M16" s="18"/>
       <c r="R16" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="S16" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="T16" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="U16" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="S16" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="T16" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="U16" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="V16" s="33"/>
+      <c r="V16" s="35"/>
       <c r="W16" s="16"/>
       <c r="X16" s="16"/>
       <c r="Y16" s="16"/>
@@ -1426,13 +1429,13 @@
     </row>
     <row r="17" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B17" s="17" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>2</v>
@@ -1460,13 +1463,13 @@
       </c>
       <c r="M17" s="12"/>
       <c r="R17" s="17" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S17" s="17" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="T17" s="17" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="U17" s="17" t="s">
         <v>2</v>
@@ -1478,10 +1481,10 @@
     </row>
     <row r="19" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="R19" s="9" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="W19" s="19"/>
       <c r="X19" s="19"/>
@@ -1491,43 +1494,43 @@
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B20" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="L20" s="35"/>
+      <c r="R20" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="S20" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="T20" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="U20" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="G20" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="L20" s="33"/>
-      <c r="R20" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="S20" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="T20" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="U20" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="V20" s="33"/>
+      <c r="V20" s="35"/>
       <c r="W20" s="16"/>
       <c r="X20" s="16"/>
       <c r="Y20" s="16"/>
@@ -1536,13 +1539,13 @@
     </row>
     <row r="21" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B21" s="17" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>2</v>
@@ -1569,13 +1572,13 @@
         <v>2</v>
       </c>
       <c r="R21" s="17" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S21" s="17" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="T21" s="17" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="U21" s="17" t="s">
         <v>2</v>
@@ -1587,52 +1590,52 @@
     </row>
     <row r="23" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R23" s="9" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="W23" s="19"/>
     </row>
     <row r="24" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B24" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="L24" s="35"/>
+      <c r="R24" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="S24" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="T24" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="U24" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="G24" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="L24" s="33"/>
-      <c r="R24" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="S24" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="T24" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="U24" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="V24" s="33"/>
+      <c r="V24" s="35"/>
       <c r="W24" s="16"/>
       <c r="X24" s="16"/>
       <c r="Y24" s="16"/>
@@ -1641,13 +1644,13 @@
     </row>
     <row r="25" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B25" s="17" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E25" s="17" t="s">
         <v>2</v>
@@ -1674,13 +1677,13 @@
         <v>2</v>
       </c>
       <c r="R25" s="17" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="S25" s="17" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="T25" s="17" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="U25" s="17" t="s">
         <v>2</v>
@@ -1692,70 +1695,70 @@
     </row>
     <row r="27" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B27" s="9" t="s">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="R27" s="9" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B28" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="G28" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="L28" s="33"/>
+        <v>59</v>
+      </c>
+      <c r="G28" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="L28" s="35"/>
       <c r="R28" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S28" s="13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="T28" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="U28" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="V28" s="33"/>
-      <c r="W28" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="X28" s="33"/>
-      <c r="Y28" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z28" s="33"/>
+        <v>67</v>
+      </c>
+      <c r="U28" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="V28" s="35"/>
+      <c r="W28" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="X28" s="35"/>
+      <c r="Y28" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z28" s="35"/>
       <c r="AA28" s="16"/>
     </row>
     <row r="29" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B29" s="17" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E29" s="17" t="s">
         <v>2</v>
@@ -1782,13 +1785,13 @@
         <v>2</v>
       </c>
       <c r="R29" s="17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="S29" s="17" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="T29" s="17" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="U29" s="17" t="s">
         <v>2</v>
@@ -1811,7 +1814,7 @@
     </row>
     <row r="31" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B31" s="9" t="s">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="R31" s="18"/>
       <c r="S31" s="18"/>
@@ -1821,7 +1824,7 @@
     </row>
     <row r="32" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B32" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
@@ -1841,7 +1844,7 @@
     </row>
     <row r="33" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B33" s="17" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
@@ -1867,24 +1870,24 @@
     </row>
     <row r="35" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B35" s="9" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="R35" s="9" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B36" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="F36" s="15"/>
       <c r="G36" s="15"/>
@@ -1894,32 +1897,32 @@
       <c r="K36" s="15"/>
       <c r="L36" s="15"/>
       <c r="R36" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S36" s="13" t="s">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="T36" s="13" t="s">
-        <v>56</v>
+        <v>123</v>
       </c>
       <c r="U36" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="V36" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="W36" s="32"/>
-      <c r="X36" s="32"/>
-      <c r="Y36" s="33"/>
+        <v>59</v>
+      </c>
+      <c r="V36" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="W36" s="36"/>
+      <c r="X36" s="36"/>
+      <c r="Y36" s="35"/>
       <c r="Z36" s="15"/>
       <c r="AA36" s="15"/>
     </row>
     <row r="37" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B37" s="17" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D37" s="17" t="s">
         <v>2</v>
@@ -1934,10 +1937,10 @@
       <c r="J37" s="12"/>
       <c r="K37" s="12"/>
       <c r="R37" s="17" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="S37" s="17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="T37" s="17" t="s">
         <v>2</v>
@@ -1963,18 +1966,18 @@
     </row>
     <row r="39" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B39" s="9" t="s">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="R39" s="9" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B40" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="D40" s="15"/>
       <c r="E40" s="15"/>
@@ -1986,15 +1989,15 @@
       <c r="K40" s="15"/>
       <c r="L40" s="15"/>
       <c r="R40" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S40" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="T40" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="U40" s="33"/>
+        <v>107</v>
+      </c>
+      <c r="T40" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="U40" s="35"/>
       <c r="V40" s="15"/>
       <c r="W40" s="15"/>
       <c r="X40" s="15"/>
@@ -2004,10 +2007,10 @@
     </row>
     <row r="41" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B41" s="17" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
@@ -2018,10 +2021,10 @@
       <c r="J41" s="12"/>
       <c r="K41" s="12"/>
       <c r="R41" s="17" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S41" s="17" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="T41" s="17" t="s">
         <v>2</v>
@@ -2033,18 +2036,18 @@
     </row>
     <row r="43" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B43" s="9" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="R43" s="9" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B44" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
@@ -2056,19 +2059,19 @@
       <c r="K44" s="15"/>
       <c r="L44" s="15"/>
       <c r="R44" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S44" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="T44" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="U44" s="32"/>
-      <c r="V44" s="32"/>
-      <c r="W44" s="33"/>
+        <v>107</v>
+      </c>
+      <c r="T44" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="U44" s="36"/>
+      <c r="V44" s="36"/>
+      <c r="W44" s="35"/>
       <c r="X44" s="13" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="Y44" s="15"/>
       <c r="Z44" s="15"/>
@@ -2076,10 +2079,10 @@
     </row>
     <row r="45" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B45" s="17" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
@@ -2090,10 +2093,10 @@
       <c r="J45" s="12"/>
       <c r="K45" s="12"/>
       <c r="R45" s="17" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="S45" s="17" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="T45" s="17" t="s">
         <v>2</v>
@@ -2108,26 +2111,26 @@
         <v>2</v>
       </c>
       <c r="X45" s="17" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B47" s="9" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="R47" s="9" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B48" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E48" s="15"/>
       <c r="F48" s="15"/>
@@ -2138,19 +2141,19 @@
       <c r="K48" s="15"/>
       <c r="L48" s="15"/>
       <c r="R48" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S48" s="13" t="s">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="T48" s="13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="U48" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="V48" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="W48" s="15"/>
       <c r="X48" s="15"/>
@@ -2160,13 +2163,13 @@
     </row>
     <row r="49" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B49" s="17" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E49" s="12"/>
       <c r="F49" s="12"/>
@@ -2176,62 +2179,62 @@
       <c r="J49" s="12"/>
       <c r="K49" s="12"/>
       <c r="R49" s="17" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="S49" s="17" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="T49" s="17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="U49" s="17" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="V49" s="17" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B51" s="9" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B52" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H52" s="13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I52" s="13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J52" s="13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K52" s="13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L52" s="15"/>
     </row>
     <row r="53" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B53" s="17" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C53" s="17">
         <v>0</v>
@@ -2264,45 +2267,45 @@
     </row>
     <row r="55" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B55" s="9" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B56" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F56" s="13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H56" s="13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I56" s="13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J56" s="13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K56" s="13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L56" s="15"/>
     </row>
     <row r="57" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B57" s="17" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C57" s="17">
         <v>0</v>
@@ -2335,45 +2338,45 @@
     </row>
     <row r="59" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B59" s="9" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
     </row>
     <row r="60" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B60" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F60" s="13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G60" s="13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H60" s="13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I60" s="13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J60" s="13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K60" s="13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L60" s="15"/>
     </row>
     <row r="61" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B61" s="17" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C61" s="17">
         <v>0</v>
@@ -2405,12 +2408,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="R2:AA2"/>
-    <mergeCell ref="Y28:Z28"/>
-    <mergeCell ref="W28:X28"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="K20:L20"/>
     <mergeCell ref="T44:W44"/>
     <mergeCell ref="V36:Y36"/>
     <mergeCell ref="T40:U40"/>
@@ -2419,12 +2422,12 @@
     <mergeCell ref="G28:J28"/>
     <mergeCell ref="K28:L28"/>
     <mergeCell ref="U28:V28"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="R2:AA2"/>
+    <mergeCell ref="Y28:Z28"/>
+    <mergeCell ref="W28:X28"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="U16:V16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2436,8 +2439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:V22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2446,76 +2449,76 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
+      <c r="B2" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
     </row>
     <row r="3" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
+      <c r="B3" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
       <c r="F3" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="G3" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="H3" s="36"/>
+        <v>131</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="H3" s="41"/>
       <c r="I3" s="4" t="s">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="K3" s="20" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="L3" s="20" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="M3" s="20" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="N3" s="20" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="P3" s="20" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
@@ -2601,11 +2604,11 @@
       <c r="V5" s="2"/>
     </row>
     <row r="6" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
+      <c r="B6" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
       <c r="H6" s="1"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -2623,16 +2626,16 @@
       <c r="V6" s="2"/>
     </row>
     <row r="7" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="38"/>
+      <c r="B7" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="43"/>
       <c r="D7" s="3"/>
       <c r="F7" s="29" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="J7" s="30" t="s">
         <v>129</v>
@@ -2644,38 +2647,38 @@
       <c r="U7" s="2"/>
     </row>
     <row r="8" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="37" t="s">
-        <v>93</v>
+      <c r="B8" s="42" t="s">
+        <v>136</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="J8" s="24" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="37"/>
+      <c r="B9" s="42"/>
       <c r="C9" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -2687,112 +2690,112 @@
       <c r="P9" s="2"/>
     </row>
     <row r="10" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="37" t="s">
-        <v>94</v>
+      <c r="B10" s="42" t="s">
+        <v>137</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="37"/>
+      <c r="B11" s="42"/>
       <c r="C11" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="35"/>
-      <c r="S14" s="35"/>
+      <c r="B14" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="40"/>
     </row>
     <row r="15" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="22" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="F15" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="41"/>
+        <v>76</v>
+      </c>
+      <c r="F15" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="39"/>
       <c r="J15" s="22" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="K15" s="22" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="L15" s="26" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="M15" s="26" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="N15" s="26" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="O15" s="26" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="P15" s="26" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="Q15" s="26" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="R15" s="26" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="S15" s="22" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="23" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="F16" s="23" t="s">
         <v>2</v>
@@ -2890,111 +2893,107 @@
         <v>16</v>
       </c>
       <c r="S17" s="23" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="2:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="35"/>
-      <c r="R19" s="35"/>
-      <c r="S19" s="35"/>
+      <c r="B19" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="40"/>
+      <c r="S19" s="40"/>
     </row>
     <row r="20" spans="2:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="26" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="D20" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="K20" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="L20" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="M20" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="N20" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="O20" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="F20" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="G20" s="40"/>
-      <c r="H20" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="I20" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="J20" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="K20" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="L20" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="M20" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="N20" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="O20" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="P20" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q20" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="R20" s="26" t="s">
-        <v>114</v>
+      <c r="P20" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q20" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="R20" s="31" t="s">
+        <v>83</v>
       </c>
       <c r="S20" s="26" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="2:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="27" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="F21" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="G21" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="H21" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="I21" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="J21" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="H21" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="I21" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="J21" s="32" t="s">
         <v>2</v>
       </c>
       <c r="K21" s="27" t="s">
@@ -3038,19 +3037,19 @@
       <c r="E22" s="27">
         <v>3</v>
       </c>
-      <c r="F22" s="27">
+      <c r="F22" s="32">
         <v>4</v>
       </c>
-      <c r="G22" s="27">
+      <c r="G22" s="32">
         <v>5</v>
       </c>
-      <c r="H22" s="27">
+      <c r="H22" s="32">
         <v>6</v>
       </c>
-      <c r="I22" s="27">
+      <c r="I22" s="32">
         <v>7</v>
       </c>
-      <c r="J22" s="27">
+      <c r="J22" s="32">
         <v>8</v>
       </c>
       <c r="K22" s="27">
@@ -3078,22 +3077,22 @@
         <v>16</v>
       </c>
       <c r="S22" s="27" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="B19:S19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="B14:S14"/>
-    <mergeCell ref="G3:H3"/>
     <mergeCell ref="B2:S2"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="B19:S19"/>
+    <mergeCell ref="B14:S14"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="F20:I20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/metaData.xlsx
+++ b/metaData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antoine\Documents\GitHub\Data_Looger\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antoi\Documents\GitHub\Data_Looger\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53DB02E8-30FE-4A41-BD02-6A27319E6B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC70189-2043-446D-B5F0-24C8E8BD421E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30045" yWindow="2085" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UART message" sheetId="1" r:id="rId1"/>
@@ -685,16 +685,28 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -706,19 +718,7 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1006,53 +1006,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AA61"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L61" sqref="B2:L61"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="12" width="6.33203125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="7.109375" style="4" customWidth="1"/>
-    <col min="14" max="14" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="27" width="6.5546875" style="4" customWidth="1"/>
-    <col min="28" max="16384" width="15.6640625" style="4"/>
+    <col min="1" max="1" width="6.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" style="4" customWidth="1"/>
+    <col min="3" max="12" width="6.28515625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="7.140625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="27" width="6.5703125" style="4" customWidth="1"/>
+    <col min="28" max="16384" width="15.7109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
+    <row r="2" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B2" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
-      <c r="R2" s="23" t="s">
+      <c r="R2" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-    </row>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+    </row>
+    <row r="3" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>80</v>
       </c>
@@ -1069,18 +1069,18 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
       <c r="G4" s="25"/>
       <c r="H4" s="9" t="s">
         <v>56</v>
@@ -1107,7 +1107,7 @@
       <c r="Z4" s="12"/>
       <c r="AA4" s="12"/>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B5" s="13" t="s">
         <v>1</v>
       </c>
@@ -1146,12 +1146,12 @@
       <c r="V5" s="14"/>
       <c r="W5" s="15"/>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
       <c r="N6" s="13" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>91</v>
       </c>
@@ -1170,7 +1170,7 @@
       <c r="Z7" s="15"/>
       <c r="AA7" s="15"/>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
         <v>3</v>
       </c>
@@ -1203,7 +1203,7 @@
       <c r="Z8" s="12"/>
       <c r="AA8" s="12"/>
     </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
         <v>5</v>
       </c>
@@ -1231,11 +1231,11 @@
       <c r="V9" s="14"/>
       <c r="W9" s="15"/>
     </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:27" x14ac:dyDescent="0.25">
       <c r="Q10" s="15"/>
       <c r="R10" s="15"/>
     </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>92</v>
       </c>
@@ -1250,7 +1250,7 @@
       <c r="Z11" s="15"/>
       <c r="AA11" s="15"/>
     </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
         <v>3</v>
       </c>
@@ -1290,7 +1290,7 @@
       <c r="Z12" s="15"/>
       <c r="AA12" s="15"/>
     </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B13" s="13" t="s">
         <v>6</v>
       </c>
@@ -1329,7 +1329,7 @@
       <c r="Z13" s="15"/>
       <c r="AA13" s="15"/>
     </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:27" x14ac:dyDescent="0.25">
       <c r="N14" s="13" t="s">
         <v>60</v>
       </c>
@@ -1348,7 +1348,7 @@
       <c r="Z14" s="15"/>
       <c r="AA14" s="15"/>
     </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>93</v>
       </c>
@@ -1368,7 +1368,7 @@
       <c r="Z15" s="15"/>
       <c r="AA15" s="15"/>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
         <v>3</v>
       </c>
@@ -1384,13 +1384,13 @@
       <c r="F16" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="24" t="s">
+      <c r="G16" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
       <c r="J16" s="25"/>
-      <c r="K16" s="24" t="s">
+      <c r="K16" s="23" t="s">
         <v>13</v>
       </c>
       <c r="L16" s="25"/>
@@ -1404,7 +1404,7 @@
       <c r="T16" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="U16" s="24" t="s">
+      <c r="U16" s="23" t="s">
         <v>4</v>
       </c>
       <c r="V16" s="25"/>
@@ -1414,7 +1414,7 @@
       <c r="Z16" s="12"/>
       <c r="AA16" s="12"/>
     </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B17" s="13" t="s">
         <v>11</v>
       </c>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="W17" s="15"/>
     </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>14</v>
       </c>
@@ -1479,7 +1479,7 @@
       <c r="Z19" s="15"/>
       <c r="AA19" s="15"/>
     </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
         <v>3</v>
       </c>
@@ -1495,13 +1495,13 @@
       <c r="F20" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="G20" s="24" t="s">
+      <c r="G20" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
       <c r="J20" s="25"/>
-      <c r="K20" s="24" t="s">
+      <c r="K20" s="23" t="s">
         <v>13</v>
       </c>
       <c r="L20" s="25"/>
@@ -1514,7 +1514,7 @@
       <c r="T20" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="U20" s="24" t="s">
+      <c r="U20" s="23" t="s">
         <v>4</v>
       </c>
       <c r="V20" s="25"/>
@@ -1524,7 +1524,7 @@
       <c r="Z20" s="12"/>
       <c r="AA20" s="12"/>
     </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B21" s="13" t="s">
         <v>22</v>
       </c>
@@ -1575,7 +1575,7 @@
       </c>
       <c r="W21" s="15"/>
     </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>15</v>
       </c>
@@ -1584,7 +1584,7 @@
       </c>
       <c r="W23" s="15"/>
     </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
         <v>3</v>
       </c>
@@ -1600,13 +1600,13 @@
       <c r="F24" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="G24" s="24" t="s">
+      <c r="G24" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
       <c r="J24" s="25"/>
-      <c r="K24" s="24" t="s">
+      <c r="K24" s="23" t="s">
         <v>13</v>
       </c>
       <c r="L24" s="25"/>
@@ -1619,7 +1619,7 @@
       <c r="T24" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="U24" s="24" t="s">
+      <c r="U24" s="23" t="s">
         <v>4</v>
       </c>
       <c r="V24" s="25"/>
@@ -1629,7 +1629,7 @@
       <c r="Z24" s="12"/>
       <c r="AA24" s="12"/>
     </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B25" s="13" t="s">
         <v>23</v>
       </c>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="W25" s="15"/>
     </row>
-    <row r="27" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>94</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B28" s="9" t="s">
         <v>3</v>
       </c>
@@ -1704,13 +1704,13 @@
       <c r="F28" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="G28" s="24" t="s">
+      <c r="G28" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
       <c r="J28" s="25"/>
-      <c r="K28" s="24" t="s">
+      <c r="K28" s="23" t="s">
         <v>13</v>
       </c>
       <c r="L28" s="25"/>
@@ -1723,21 +1723,21 @@
       <c r="T28" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="U28" s="24" t="s">
+      <c r="U28" s="23" t="s">
         <v>21</v>
       </c>
       <c r="V28" s="25"/>
-      <c r="W28" s="24" t="s">
+      <c r="W28" s="23" t="s">
         <v>20</v>
       </c>
       <c r="X28" s="25"/>
-      <c r="Y28" s="24" t="s">
+      <c r="Y28" s="23" t="s">
         <v>19</v>
       </c>
       <c r="Z28" s="25"/>
       <c r="AA28" s="12"/>
     </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B29" s="13" t="s">
         <v>24</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>83</v>
       </c>
@@ -1809,7 +1809,7 @@
       <c r="U31" s="14"/>
       <c r="V31" s="14"/>
     </row>
-    <row r="32" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B32" s="9" t="s">
         <v>3</v>
       </c>
@@ -1829,7 +1829,7 @@
       <c r="U32" s="14"/>
       <c r="V32" s="14"/>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B33" s="13" t="s">
         <v>31</v>
       </c>
@@ -1848,14 +1848,14 @@
       <c r="U33" s="14"/>
       <c r="V33" s="14"/>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.25">
       <c r="R34" s="15"/>
       <c r="S34" s="15"/>
       <c r="T34" s="15"/>
       <c r="U34" s="15"/>
       <c r="V34" s="15"/>
     </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>33</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B36" s="9" t="s">
         <v>3</v>
       </c>
@@ -1895,16 +1895,16 @@
       <c r="U36" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="V36" s="24" t="s">
+      <c r="V36" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="W36" s="26"/>
-      <c r="X36" s="26"/>
+      <c r="W36" s="24"/>
+      <c r="X36" s="24"/>
       <c r="Y36" s="25"/>
       <c r="Z36" s="11"/>
       <c r="AA36" s="11"/>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B37" s="13" t="s">
         <v>32</v>
       </c>
@@ -1948,10 +1948,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.25">
       <c r="R38" s="15"/>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B39" s="5" t="s">
         <v>95</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B40" s="9" t="s">
         <v>3</v>
       </c>
@@ -1981,7 +1981,7 @@
       <c r="S40" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="T40" s="24" t="s">
+      <c r="T40" s="23" t="s">
         <v>54</v>
       </c>
       <c r="U40" s="25"/>
@@ -1992,7 +1992,7 @@
       <c r="Z40" s="11"/>
       <c r="AA40" s="11"/>
     </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B41" s="13" t="s">
         <v>30</v>
       </c>
@@ -2021,7 +2021,7 @@
       </c>
       <c r="V41" s="14"/>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
         <v>50</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B44" s="9" t="s">
         <v>3</v>
       </c>
@@ -2051,11 +2051,11 @@
       <c r="S44" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="T44" s="24" t="s">
+      <c r="T44" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="U44" s="26"/>
-      <c r="V44" s="26"/>
+      <c r="U44" s="24"/>
+      <c r="V44" s="24"/>
       <c r="W44" s="25"/>
       <c r="X44" s="9" t="s">
         <v>56</v>
@@ -2064,7 +2064,7 @@
       <c r="Z44" s="11"/>
       <c r="AA44" s="11"/>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B45" s="13" t="s">
         <v>46</v>
       </c>
@@ -2101,7 +2101,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B47" s="5" t="s">
         <v>51</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B48" s="9" t="s">
         <v>3</v>
       </c>
@@ -2148,7 +2148,7 @@
       <c r="Z48" s="11"/>
       <c r="AA48" s="11"/>
     </row>
-    <row r="49" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B49" s="13" t="s">
         <v>47</v>
       </c>
@@ -2181,12 +2181,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B51" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="52" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B52" s="9" t="s">
         <v>3</v>
       </c>
@@ -2219,7 +2219,7 @@
       </c>
       <c r="L52" s="11"/>
     </row>
-    <row r="53" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B53" s="13" t="s">
         <v>48</v>
       </c>
@@ -2252,12 +2252,12 @@
       </c>
       <c r="L53" s="8"/>
     </row>
-    <row r="55" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B55" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="56" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B56" s="9" t="s">
         <v>3</v>
       </c>
@@ -2290,7 +2290,7 @@
       </c>
       <c r="L56" s="11"/>
     </row>
-    <row r="57" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B57" s="13" t="s">
         <v>49</v>
       </c>
@@ -2323,12 +2323,12 @@
       </c>
       <c r="L57" s="8"/>
     </row>
-    <row r="59" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B59" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="60" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B60" s="9" t="s">
         <v>3</v>
       </c>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="L60" s="11"/>
     </row>
-    <row r="61" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B61" s="13" t="s">
         <v>44</v>
       </c>
@@ -2395,12 +2395,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="R2:AA2"/>
+    <mergeCell ref="Y28:Z28"/>
+    <mergeCell ref="W28:X28"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="U16:V16"/>
     <mergeCell ref="T44:W44"/>
     <mergeCell ref="V36:Y36"/>
     <mergeCell ref="T40:U40"/>
@@ -2409,12 +2409,12 @@
     <mergeCell ref="G28:J28"/>
     <mergeCell ref="K28:L28"/>
     <mergeCell ref="U28:V28"/>
-    <mergeCell ref="R2:AA2"/>
-    <mergeCell ref="Y28:Z28"/>
-    <mergeCell ref="W28:X28"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="K20:L20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2426,56 +2426,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:V21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S21" sqref="B13:S21"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="2"/>
-    <col min="2" max="19" width="8.33203125" style="2" customWidth="1"/>
-    <col min="20" max="16384" width="12.6640625" style="2"/>
+    <col min="1" max="1" width="12.7109375" style="2"/>
+    <col min="2" max="19" width="8.28515625" style="2" customWidth="1"/>
+    <col min="20" max="16384" width="12.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="30" t="s">
+    <row r="2" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
     </row>
-    <row r="3" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="31" t="s">
+    <row r="3" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
       <c r="F3" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="H3" s="31"/>
+      <c r="H3" s="30"/>
       <c r="I3" s="16" t="s">
         <v>106</v>
       </c>
@@ -2513,7 +2513,7 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
     </row>
-    <row r="4" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="17">
         <v>0</v>
       </c>
@@ -2572,7 +2572,7 @@
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
     </row>
-    <row r="5" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
@@ -2595,12 +2595,12 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
     </row>
-    <row r="6" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="30" t="s">
+    <row r="6" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
@@ -2620,23 +2620,23 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
     </row>
-    <row r="7" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="34" t="s">
+    <row r="7" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="34"/>
+      <c r="C7" s="29"/>
       <c r="D7" s="21" t="s">
         <v>116</v>
       </c>
       <c r="E7" s="18"/>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="G7" s="32"/>
-      <c r="I7" s="34" t="s">
+      <c r="G7" s="34"/>
+      <c r="I7" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="J7" s="34"/>
+      <c r="J7" s="29"/>
       <c r="K7" s="18"/>
       <c r="L7" s="35" t="s">
         <v>102</v>
@@ -2651,8 +2651,8 @@
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
     </row>
-    <row r="8" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="33" t="s">
+    <row r="8" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="28" t="s">
         <v>107</v>
       </c>
       <c r="C8" s="22" t="s">
@@ -2662,19 +2662,19 @@
         <v>38</v>
       </c>
       <c r="E8" s="18"/>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="G8" s="33"/>
-      <c r="I8" s="33" t="s">
+      <c r="G8" s="28"/>
+      <c r="I8" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="J8" s="33"/>
+      <c r="J8" s="28"/>
       <c r="K8" s="18"/>
-      <c r="L8" s="33" t="s">
+      <c r="L8" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="M8" s="33"/>
+      <c r="M8" s="28"/>
       <c r="N8" s="18"/>
       <c r="O8" s="18"/>
       <c r="P8" s="18"/>
@@ -2682,8 +2682,8 @@
       <c r="R8" s="18"/>
       <c r="S8" s="18"/>
     </row>
-    <row r="9" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="33"/>
+    <row r="9" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="28"/>
       <c r="C9" s="22" t="s">
         <v>0</v>
       </c>
@@ -2691,14 +2691,14 @@
         <v>39</v>
       </c>
       <c r="E9" s="18"/>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="G9" s="33"/>
-      <c r="I9" s="33" t="s">
+      <c r="G9" s="28"/>
+      <c r="I9" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="J9" s="33"/>
+      <c r="J9" s="28"/>
       <c r="K9" s="19"/>
       <c r="L9" s="19"/>
       <c r="M9" s="19"/>
@@ -2709,8 +2709,8 @@
       <c r="R9" s="18"/>
       <c r="S9" s="18"/>
     </row>
-    <row r="10" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="33" t="s">
+    <row r="10" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="28" t="s">
         <v>108</v>
       </c>
       <c r="C10" s="22" t="s">
@@ -2722,10 +2722,10 @@
       <c r="E10" s="18"/>
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
-      <c r="I10" s="33" t="s">
+      <c r="I10" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="J10" s="33"/>
+      <c r="J10" s="28"/>
       <c r="K10" s="18"/>
       <c r="L10" s="18"/>
       <c r="M10" s="18"/>
@@ -2736,8 +2736,8 @@
       <c r="R10" s="18"/>
       <c r="S10" s="18"/>
     </row>
-    <row r="11" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="33"/>
+    <row r="11" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="28"/>
       <c r="C11" s="22" t="s">
         <v>0</v>
       </c>
@@ -2760,7 +2760,7 @@
       <c r="R11" s="18"/>
       <c r="S11" s="18"/>
     </row>
-    <row r="12" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
@@ -2780,29 +2780,29 @@
       <c r="R12" s="18"/>
       <c r="S12" s="18"/>
     </row>
-    <row r="13" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="30" t="s">
+    <row r="13" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="30"/>
-    </row>
-    <row r="14" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+    </row>
+    <row r="14" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
         <v>135</v>
       </c>
@@ -2815,12 +2815,12 @@
       <c r="E14" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="29"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="33"/>
       <c r="J14" s="16" t="s">
         <v>56</v>
       </c>
@@ -2852,7 +2852,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="17" t="s">
         <v>75</v>
       </c>
@@ -2908,7 +2908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="17">
         <v>0</v>
       </c>
@@ -2964,7 +2964,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="2:19" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
@@ -2984,29 +2984,29 @@
       <c r="R17" s="18"/>
       <c r="S17" s="18"/>
     </row>
-    <row r="18" spans="2:19" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="30" t="s">
+    <row r="18" spans="2:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="30"/>
-      <c r="S18" s="30"/>
-    </row>
-    <row r="19" spans="2:19" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="27"/>
+    </row>
+    <row r="19" spans="2:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="16" t="s">
         <v>135</v>
       </c>
@@ -3019,12 +3019,12 @@
       <c r="E19" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="F19" s="27" t="s">
+      <c r="F19" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="29"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="33"/>
       <c r="J19" s="16" t="s">
         <v>56</v>
       </c>
@@ -3056,7 +3056,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="20" spans="2:19" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="17" t="s">
         <v>75</v>
       </c>
@@ -3112,7 +3112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:19" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="17">
         <v>0</v>
       </c>
@@ -3170,12 +3170,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B2:S2"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B3:E3"/>
     <mergeCell ref="F14:I14"/>
     <mergeCell ref="B18:S18"/>
     <mergeCell ref="B13:S13"/>
@@ -3190,6 +3184,12 @@
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="L8:M8"/>
+    <mergeCell ref="B2:S2"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B3:E3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
